--- a/aeri2009_data_reconciled.xlsx
+++ b/aeri2009_data_reconciled.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B3FD26-0DF3-416D-A44E-B511419D4B0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837FC2EE-170D-49A1-8C40-B073A06014A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="4824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="289">
   <si>
     <t>ID Number</t>
   </si>
@@ -281,9 +276,6 @@
   </si>
   <si>
     <t>Digital Curation Curriculum Development</t>
-  </si>
-  <si>
-    <t>Disparate Ideas as Opportunities to Enhance Understanding.</t>
   </si>
   <si>
     <t>Ethnographic Methods</t>
@@ -630,15 +622,9 @@
 The information generated via this phase of the project will be available to answer more theoretically based questions in the next phase.  The results, for instance, can be compared to the primary organizational forms in the field to link patterns of organizational change over time to the verbally expressed demand for particular organizational types.  With additional data on the formation and dissolution of organizations within each form, one can statistically estimate whether these forms have reached their carrying capacity and offer predictions about their likely survivability and potential future evolution (Ruef, 1999; 2006).  In addition, one could associate the discourse and citations within the same corpus with economic events over that time frame to compare the impact of institutional factors and key researchers with the impact of economic events in the changing landscape of digital preservation</t>
   </si>
   <si>
-    <t>Plenary Talk</t>
-  </si>
-  <si>
     <t>Plenary</t>
   </si>
   <si>
-    <t>http://aeri.website/2009-conference-schedule/</t>
-  </si>
-  <si>
     <t>Mentoring</t>
   </si>
   <si>
@@ -648,9 +634,6 @@
     <t>Workshop</t>
   </si>
   <si>
-    <t>http://aeri.website/research-methodologies-for-community-engagement-disparate-ideas-as-opportunities-to-enhance-understanding/</t>
-  </si>
-  <si>
     <t>Paper</t>
   </si>
   <si>
@@ -660,9 +643,6 @@
     <t>Panel Discussion</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>Discussion Session</t>
   </si>
   <si>
@@ -763,12 +743,6 @@
   </si>
   <si>
     <t>University of Ansterdam</t>
-  </si>
-  <si>
-    <t>Melbourne University and Monash University</t>
-  </si>
-  <si>
-    <t>University of Michigan; University of Pittsburgh; University of Manitoba; Monash University, University of California Los Angeles</t>
   </si>
   <si>
     <t xml:space="preserve">University of North Carolina </t>
@@ -895,12 +869,6 @@
   </si>
   <si>
     <t>Paper Session I. Faculty and Student Presentations</t>
-  </si>
-  <si>
-    <t>Appear on the website but not in program schedule</t>
-  </si>
-  <si>
-    <t>Appear on the website but not in program schedule. Does appear in program list of abstracts on pg 61.</t>
   </si>
   <si>
     <t>This presentation is a five year update of the study of core curriculum in graduate archival education programs in the United States  and Canada, completed by Jeannette Bastian and Elizabeth Yakel in 2003. The original study sought to identify core knowledge in archival curriculum through courses, syllabi and readings and was based on the premise that a core knowledge base, and the teaching of this knowledge base at a graduate level are distinguishing features of a profession.  Through analyzing archival curriculum in terms of core archival knowledge (primarily as identified by the Society of American Archivists), the investigators hoped to further solidify the core knowledge base and set a benchmark for analyzing how far the archives discipline had developed as a profession. One goal of the initial study was to provide a foundation for continual monitoring of the progress and developing trends in graduate archival education, preferably over five-year periods.  This current project seeks to utilize this foundation and establish this longitudinal process by addressing the first five-year period (2003-2008). The gathering and analyzing of relevant data based on the parameters of the initial study will be the first test of the viability of this model. 
@@ -997,32 +965,57 @@
 The DCC Curation Lifecycle appears to have significant potential to be applied as a framework for a curriculum for teaching digital preservation in the archives context. This presentation reports the results of attempts to apply the Curation Lifecycle as the basis of a digital preservation course in two countries.</t>
   </si>
   <si>
-    <t>http://aeri.website/2009-conference-schedule/. Abstact not in conference booklet PDF</t>
-  </si>
-  <si>
     <t>A large part of archival practice through the ages has been concerned, for very sound societal and pragmatic reasons, with describing the holdings of archives and documenting the actions and activities performed upon or associated with those holdings. Using contemporary terminology, we could place all of these descriptive and documentary activities under the broad, although these days all-too-vague heading of “metadata.”  We have archaeological evidence that such metadata was created and maintained within some of the earliest and most prototypical textual archives in Asia Minor and elsewhere.  Historical metadata practices, however, while they might exhibit characteristics that would seem familiar to archivists today, have been far from monolithic. European medieval chanceries and later renaissance and reformation archives provide ample examples of various systems of arrangement and description that were proposed, implemented, revised, abandoned or maintained.  The publication of Muller, Feith and Fruin’s Manual on the Arrangement and Description of Archives in 1898 in Groningen, which delineated European practices of arrangement and description, together with its presentation at the 1910 International Congress of Libraries and Archives in Brussels, and subsequent translations around the world are often pointed to as the seminal events that resulted in the de facto codification of ideas about archival descriptive practices.  This codification eventually led to worldwide acceptance following the 1993 approval of the ISAD(G), General International Standard Archival Description by the International Council on Archives Ad Hoc Commission on Descriptive Standards in Stockholm. 
 Today the ability at least to contemplate widespread exchange of archival information based upon a common set of metadata structures and conceptualizations is generally considered to be an enormous advance upon the long-extant status quo of standalone, idiosyncratic archival repositories operating in distinct national and organizational contexts. Nevertheless, the status of archival metadata is something that deserves further critical analysis and reflection.  There remain wide variations in archival metadata practices around the globe as different archival traditions in different cultural and bureaucratic communities strive to maintain local and Indigenous practices or seek to create new national or sector-relevant standards, yet still interface with global but arguably Eurocentric standards.  Moreover, the creation of volumes of digital records so vast and complex that no archives can realistically contemplate manual metadata creation, coupled with the potential of Web 2.0 for spreading the burden of metadata creation beyond the archive and archivists together raise abundant new questions about the provenance, nature and role of metadata, as well as that of the archivist as the sole author of that metadata.
 This paper will consider the intellectual lineage of ideas about metadata and the motivations and perspectives underlying them.  It will then reflect upon the implications of those ideas for contemporary concerns of global information exchange, sovereignty, democratization, pluralization, accessibility and scalability.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://aeri.website/2009-conference-schedule/
-Ricci listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm </t>
-  </si>
-  <si>
-    <t>http://aeri.website/2009-conference-schedule/
+    <t>University of California Los Angeles; Los Angeles Public Library; University of California Los Angeles; Central Washington University; University of California Los Angeles; Mayme Clayton Library and Archives; University of California Los Angeles; Autry National Center; University of California Irvine; California State Polytechnic University Pomona</t>
+  </si>
+  <si>
+    <t>[No title in program.]</t>
+  </si>
+  <si>
+    <t>[No abstract in program.]</t>
+  </si>
+  <si>
+    <t>Beth Yakel; Richard Cox; Terry Cook; Sue McKemmish; Andrew Lau</t>
+  </si>
+  <si>
+    <t>[No presenter institution in program.]</t>
+  </si>
+  <si>
+    <t>[No presenter in program.]</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm; http://aeri.website/2009-conference-schedule/</t>
+  </si>
+  <si>
+    <t>http://aeri.website/research-methodologies-for-community-engagement-disparate-ideas-as-opportunities-to-enhance-understanding/; https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; http://aeri.website/2009-conference-schedule/; Ricci listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm;
+http://aeri.website/2009-conference-schedule/
 Lindbergh listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm#llindbergh</t>
   </si>
   <si>
-    <t>University of California Los Angeles; Los Angeles Public Library; University of California Los Angeles; Central Washington University; University of California Los Angeles; Mayme Clayton Library and Archives; University of California Los Angeles; Autry National Center; University of California Irvine; California State Polytechnic University Pomona</t>
-  </si>
-  <si>
-    <t>[No title in program.]</t>
-  </si>
-  <si>
-    <t>[No abstract in program.]</t>
-  </si>
-  <si>
-    <t>Beth Yakel; Richard Cox; Terry Cook; Sue McKemmish; Andrew Lau</t>
+    <t>https://aeri.gseis.ucla.edu/2009.htm. 
+Appears on the website (https://aeri.gseis.ucla.edu/2009.htm) but not in program pdf at https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf.</t>
+  </si>
+  <si>
+    <t>University of Melbourne and Monash University; Monash University; Monash University</t>
+  </si>
+  <si>
+    <t>Disparate Ideas as Opportunities to Enhance Understanding</t>
+  </si>
+  <si>
+    <t>University of Michigan; University of Pittsburgh; University of Manitoba; Monash University; University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>University of Melbourne and Monash University</t>
   </si>
   <si>
     <t>The advent of the electronic record and the development of the internet is moving society quickly into a global world. Through global media and communication technologies such as the internet virtually everyone on earth is exposed to diverse cultural institutions. The availability of digital cultural information is opening a whole new world to archivists, historians and scholars. Its rich, unique content and historical value is attracting enormous attention from researchers from all over the world. This increased accessibility of archival information is largely made possible by the development of electronic finding aids and is accelerated by the wide spread of international standardization. Global standardization is understood by diverse information communities as the most efficient way to solve the problem of how to more effectively exchange digital information across different databases. People seek to standardize systems to reduce the idiosyncratic organizational practice to encourage conformity in support of data exchange and use. Without common standards in order to improve the accessibility of cross-domain searching and access, professionals working in different standards would have to understand the descriptive standards which are used in every other domain.
@@ -1035,7 +1028,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,10 +1086,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1165,7 +1154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1191,22 +1180,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1581,9 +1582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1593,7 @@
     <col min="5" max="5" width="35.5" customWidth="1"/>
     <col min="6" max="6" width="54.19921875" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="32.296875" customWidth="1"/>
+    <col min="9" max="9" width="33.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1620,11 +1621,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2009001</v>
       </c>
@@ -1632,136 +1633,152 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2009002</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2009003</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2009004</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2009005</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2009006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1770,27 +1787,27 @@
         <v>81</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2009007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
@@ -1799,27 +1816,27 @@
         <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2009008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -1828,16 +1845,16 @@
         <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
@@ -1845,57 +1862,57 @@
         <v>2009009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2009010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1903,7 +1920,7 @@
         <v>2009011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1912,19 +1929,19 @@
         <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -1932,28 +1949,28 @@
         <v>2009012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1964,25 +1981,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
@@ -1993,54 +2010,54 @@
         <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2009015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>283</v>
+        <v>175</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2051,25 +2068,25 @@
         <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2077,28 +2094,28 @@
         <v>2009017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2109,25 +2126,25 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2138,25 +2155,25 @@
         <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2167,25 +2184,25 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2196,25 +2213,25 @@
         <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2222,31 +2239,31 @@
         <v>2009022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2009023</v>
       </c>
@@ -2254,25 +2271,25 @@
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2283,25 +2300,25 @@
         <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2312,25 +2329,25 @@
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2341,25 +2358,25 @@
         <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2367,28 +2384,28 @@
         <v>2009027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="312" x14ac:dyDescent="0.3">
@@ -2399,28 +2416,28 @@
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2009029</v>
       </c>
@@ -2428,28 +2445,28 @@
         <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2009030</v>
       </c>
@@ -2457,25 +2474,25 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -2486,25 +2503,25 @@
         <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2515,25 +2532,25 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2544,28 +2561,28 @@
         <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2009034</v>
       </c>
@@ -2573,28 +2590,28 @@
         <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2009035</v>
       </c>
@@ -2602,28 +2619,28 @@
         <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2009036</v>
       </c>
@@ -2631,28 +2648,28 @@
         <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2009037</v>
       </c>
@@ -2660,25 +2677,25 @@
         <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -2686,31 +2703,31 @@
         <v>2009038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2009039</v>
       </c>
@@ -2718,25 +2735,25 @@
         <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2747,28 +2764,28 @@
         <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2009041</v>
       </c>
@@ -2776,25 +2793,25 @@
         <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2805,25 +2822,25 @@
         <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2834,25 +2851,25 @@
         <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2863,25 +2880,25 @@
         <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -2889,28 +2906,28 @@
         <v>2009045</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
@@ -2921,25 +2938,25 @@
         <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,28 +2964,28 @@
         <v>2009047</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="297.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,31 +2993,31 @@
         <v>2009048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2009049</v>
       </c>
@@ -3008,54 +3025,54 @@
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>2009050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3066,25 +3083,25 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -3095,25 +3112,25 @@
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3124,25 +3141,25 @@
         <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
@@ -3156,22 +3173,22 @@
         <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3182,25 +3199,25 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>281</v>
+        <v>175</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3214,22 +3231,22 @@
         <v>18</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3240,25 +3257,25 @@
         <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>184</v>
+        <v>272</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3266,28 +3283,28 @@
         <v>2009058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>184</v>
+        <v>123</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3295,31 +3312,31 @@
         <v>2009059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2009060</v>
       </c>
@@ -3327,25 +3344,25 @@
         <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>184</v>
+        <v>275</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>284</v>
+        <v>175</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3356,25 +3373,25 @@
         <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3385,25 +3402,25 @@
         <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3411,28 +3428,28 @@
         <v>2009063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3443,25 +3460,25 @@
         <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
@@ -3472,25 +3489,25 @@
         <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3501,25 +3518,25 @@
         <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3527,28 +3544,28 @@
         <v>2009067</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3559,25 +3576,25 @@
         <v>70</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
@@ -3588,25 +3605,25 @@
         <v>71</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -3614,10 +3631,10 @@
         <v>2009070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>72</v>
@@ -3626,16 +3643,16 @@
         <v>72</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3646,25 +3663,25 @@
         <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3675,25 +3692,25 @@
         <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3704,25 +3721,25 @@
         <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3733,25 +3750,25 @@
         <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -3762,28 +3779,28 @@
         <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>2009076</v>
       </c>
@@ -3791,28 +3808,28 @@
         <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2009077</v>
       </c>
@@ -3820,7 +3837,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>78</v>
@@ -3829,16 +3846,16 @@
         <v>78</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3849,113 +3866,116 @@
         <v>79</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I79" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>2009079</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4" t="s">
-        <v>263</v>
+        <v>177</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>2009080</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="13" t="s">
+      <c r="B81" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
+        <v>2009081</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>2009081</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="4" t="s">
-        <v>262</v>
+      <c r="G82" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/aeri2009_data_reconciled.xlsx
+++ b/aeri2009_data_reconciled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837FC2EE-170D-49A1-8C40-B073A06014A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA8B4AE-DFF1-B047-8B9E-9F17AD060730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="4824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25300" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$82</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="288">
   <si>
     <t>ID Number</t>
   </si>
@@ -82,18 +87,12 @@
     <t>Simmons College</t>
   </si>
   <si>
-    <t>Paper Session A Faculty and Student Presentations</t>
-  </si>
-  <si>
     <t>Susan Soy</t>
   </si>
   <si>
     <t>Kimberly Anderson</t>
   </si>
   <si>
-    <t>Paper Session B. Faculty and Student Presentations.</t>
-  </si>
-  <si>
     <t>Amelia Abreu</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>Kathleen Fear</t>
   </si>
   <si>
-    <t>Paper Session C. Faculty and Student Presentations</t>
-  </si>
-  <si>
     <t>Jennifer Bunn</t>
   </si>
   <si>
@@ -119,9 +115,6 @@
   </si>
   <si>
     <t>Jan Fernhout</t>
-  </si>
-  <si>
-    <t>Paper Session D. Faculty and Student Presentations</t>
   </si>
   <si>
     <t>Laura Helton</t>
@@ -221,9 +214,6 @@
     <t>Amber Cushing</t>
   </si>
   <si>
-    <t>Paper Session G. Faculty and Student Presentations</t>
-  </si>
-  <si>
     <t>Sarah Kim</t>
   </si>
   <si>
@@ -432,9 +422,6 @@
   </si>
   <si>
     <t>Indigenous Knowledge and the Archives: Embracing Multiple Ways of Knowing and Keeping</t>
-  </si>
-  <si>
-    <t>All Things We Cannot Articulate”: Archives and Commemoration in a Former Leper Colony in the Philippines</t>
   </si>
   <si>
     <t>A Community Ecology Approach to Preservation Organizations: The Development of New Forms</t>
@@ -488,11 +475,6 @@
 The conclusion of this project will clarify whether scientific ideas of the Ancien Régime were represented in publications about archival science and whether archivists of the period used these publications.</t>
   </si>
   <si>
-    <t>In the early twentieth century, at a moment when research libraries and state archives spread across the country, a small group of collectors, book dealers, librarians, and anthologists began to create an alternative archive, one that documented the lives of African Americans who were often absent from or hidden within official repositories.  Their work, which entailed collecting overlooked documents and buying books undervalued in the rare book market, eventually resulted in the founding of the nation’s most important research collections on African American history.  No single motivation animated their work, however.  Collectors interested in Afro-Americana ranged from the white Mississippi cotton planter and ardent segregationist Alfred Stone to the Afro-Puerto Rican bibliophile Arthur Schomburg, who assembled a vast library that became a landmark of the New Negro and Harlem Renaissance movements. 
-Prompted by this complicated history of race in the archive, my research contemplates the relationship between collections, historical memory, and social movements. Prompted by Harlem Renaissance writer Claude McKay’s 1937 call to form a black writers’ group as a “living counterpart” to Arthur Schomburg’s archive of the African diaspora, I am specifically interested in historically situating the relationship between textual collections and social collections in this period. 
-Part of a larger study, this paper will concentrate on the work of black collectors/activists in the 1920s, such as Schomburg and Hubert Harrison, in order to think about how archives helped to shape race consciousness in the early twentieth century. By examining collectors’ artifacts—correspondence, lists, prefaces, bibliographies, catalogs, and advertisements—it traces the collaborations and disagreements that contextualize the place of archive-building projects in broader social and intellectual trends.  Their work speaks to the intertwined nature of African American print culture and political mobilization between 1916 and 1945, a period in which race emerged as an object of intensive documentary engagement in government, literary, ethnographic, and historical projects. In considering the divergent motivations that led black and white collectors to accumulate Afro-Americana and the blurred categories of American nationality and black nationalism marking the era’s diverse collections, this paper argues for the need to better understand the knowledge production practices that made the archive a site of contestation.</t>
-  </si>
-  <si>
     <t>The objective of this presentation is to highlight the adoption of tools and techniques of digital archives and information science in working with social and educational content, and supporting discourse of social issues in international and indigenous contexts through the creation of a digital archive. In doing so, we expand our boundaries of research in archives. Digital technology or digitization has been recently used in many areas of social sciences, including anthropology, sociology, visual arts, education, etc. In particular, adoption of digitization has increased in the areas of HIV and AIDS prevention and critical pedagogy. The following two projects demonstrate how digital archives can be adopted and implemented for the purpose of social science research. Central to this work is the development of a methodological and technological framework through building a digital archive and, beyond methodological issues, using the social and educational context to efficiently address social issues. 
 Case 1. Giving Life (to Data) to Save Life (in the age of AIDS)
 Our International Visual Methodologies for Social Change Project has adopted a photovoice method in which children and youth take photographs or videos of their lives and activities in school and around the community in the rural South Africa. Through photography, children share personal experiences and feelings relating to issues surrounding HIV and AIDS. The photovoice method encourages the engagement of children and youth as active players in addressing critical issues around HIV and AIDS. In this way, the photograph collection has accumulated roughly 3,000 items over the years. A project on Giving Life (to Data) to Save Life (in the age of AIDS) was initiated to design and implement a digitization protocol, including scanning and metadata protocols for building digital archives of photos about HIV and AIDS. Metadata elements were very refined enough to divide subjects into multiple elements as well as user-created narrative. This project also builds a social network between researchers, practitioners, teachers, youth, and children.
@@ -500,31 +482,16 @@
 The Paulo and Nita Freire International Project for Critical Pedagogy was initiated at McGill University in order to: 1) promote the study of the history and development of critical pedagogy; 2) develop, preserve, and provide access to the important documents and media of Paulo Freire’s collections on the development of critical pedagogy. The McGill Critical Pedagogy Documentation Project (CPDP) was initiated to establish the historical and contemporary vision of critical pedagogy on education. The Project is composed of: 1) the development of digital archives, user studies, and CPDP publications; and 2) the creation of a critical pedagogy virtual network (to support an international critical pedagogy community and user community for discussion). The focus on developing methodological frameworks for scientific enquiry is a burgeoning research activity in social science, drawing on a range of tools, techniques and approaches, such as user studies, qualitative interviews, web development, digital archives, networking, Wikis (to develop a virtual encyclopedia with community-based entries on critical pedagogy projects and events) and blogs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data potentially relevant to epidemiological study are likely mired in a backlog of text based documentation not easily translated into useable statistical data. This may be especially true in parts of the world most urgently in need of intervention through epidemiologic study. While epidemiologists may be interested in the spread of disease within target populations, archivists are interested in documenting and preserving the context for data collection. If patterns of outbreaks are to be identified and studied capturing essential information accurately is crucial; similarly, the original record keeping system (i.e. textual data) must remain intact and preserved over time in order to further substantiate results. Building digital data sets from this information would essentially become its own archive which could be exploited for research use in myriad ways while protecting the context in which the data was collected and extracted.  This paper will outline some of the challenges in the preservation and providing public access to infectious disease data from Southeast Asia and will include some discussion on cultural perspectives that help or hinder access. </t>
-  </si>
-  <si>
-    <t>Topics for discussion to include ranking scholarly and professional journals; sustaining archival education programs; building new cohorts of educators and researchers; international collaboration</t>
-  </si>
-  <si>
     <t>This poster will trace the evolution and application of the concept of trusted digital repositories from the landmark 1996 Preserving Digital Information, through the work of multiple taskforces to an ISO standard and the accompanying guidelines for auditors, anticipated in the 2009-2010 timeframe.</t>
   </si>
   <si>
     <t xml:space="preserve">Launched in 2004, the School on Wheels program is the result of a transnational collaborative effort between the Fédération Internationale des Archives du Film and the IBERMEDIA fund to educate and train audiovisual archives personnel in concepts related to film archiving and preservation.  The most recent School on Wheels workshop took place at the Escuela Internacional de Cine y Television in San Antonio de los Baños, Cuba where the Instituto Cubano de Arte e Industria Cinematográfico‘s (ICAIC) Newsreel collection was used as a case study in the instruction of participants from Cuba and other Latin American nations.  This poster presents the workshop‘s proceedings and expands upon the challenges such training workshops pose in the context of transnational movements that address moving image archiving and preservation in developing nations.     </t>
-  </si>
-  <si>
-    <t>The Polar Bear Expedition Digital Collections are the oldest example of the use of social computing in  archives.  This poster will present an overview of research findings from 3.5 years of social interaction on the site. The methodology includes quantitative analysis of the web analytics and qualitative analysis of the visitor contributions, interactions. Findings will elucidate the patterns of use, the nature of the interactions between visitors and between the visitors and the archivists and the types of contributions to the site.</t>
-  </si>
-  <si>
-    <t>My presentation will examine several factors that affect the use and retention of electronic documents in the workplace.  I will draw on data from questionnaires circulated to individuals in a variety of professional settings as well as surveys of electronic documents kept by individuals in several organizations.   The factors to be examined include age, rank within the organization, professional classification, and the type of organization.</t>
   </si>
   <si>
     <t>So that, at each moment, everything tends to be spread out into an instantaneous, indefinitely divisible continuum, which will not prolong itself into the next instant, but will pass away, only to be reborn in the following instant in a flicker or shiver that constantly begins again. ~Deleuze G., (translated by Hugh Tomlinson and Barbara Habberiam), (1988) Bergsonism, Zone books, New York, p.87
 Many archivists want to manage the flicker and understand intuitively the Bergsonist notion that all is archive + the moment if the global spread of my own records continuum model of it is any guide. Research into it using archival methodologies is wide open, yet archivists, who should be knowledgeable in its management, tend to comb other disciplines looking for ideas (i.e. conceptual research) but is a clear archival voice possible within the continuum approach that should also be explored methodologically? That involves a shift in thinking for many archivists. Conceptually, the continuum is infinite, and indefinitely divisible. It almost goes without saying that our technologies in today’s spaces and times favor those who dream of the infinite, But archivists, in their institutional habitat (when I last knew of them), were mostly managers of the finite, often imagining themselves as serving a limited community in time and place, and looking after only a speck of the archives that are operating within the flicker. The view across disciplines is important, but are we afraid of the inbuilt complexity a continuum styled archival voice should bring to things?
 I am interested in providing tools that introduce some manageable dimensional perspectives into the infinite and expanding complexity of recorded information that archivists have to deal with.  So far my research has identified eleven dimensions. These will be outlined briefly, along with a strategy for managing the flicker. There will also be an emphasis upon communities across time and space and their ongoing relationship with archives characteristic of records continuum theory, and a look at archival science as a meta-discipline (as some of us argued in the 1990’s) if your goals include life-force and species survival.
 Non-discursively, however, how strong are the archival methods in support of managing the flicker including in one of its indefinite divisions, a research project? My own research into continuum concepts and the formation of archives has only raised questions and provides some frameworks for answering them. It has avoided taking any empirical route such as the investigation of what archivists are actually doing. Empiricism is usually pernicious, a conceptualisor will argue. It will only show us our own confusions and lead us further into confusion. Once the conceptual research has been done, then empirical studies can follow?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The purpose of this study was to explore the relationships between collective memory, the textualization of personal experience, and the psychodynamics of meaning-making when   creating and interacting with historical objects. Specifically, this study explored migration testimonies as statements of identity, which were collected and exhibited online by Moving Here: 200 Years of Migration to England, an educational resource organized by the National Archives of the UK and its partner institutions. The fantasy theme rhetorical analysis framework and the rhetorical situation framework were used to analyze the personal and experiential stories collected by the National Archives of the UK in the Moving Here project and the themes of national and cultural identity. The use of these particular approaches allowed for an evaluation of their efficacy as interpretive frameworks and ultimately, their limitations as such. This study also explored theoretical implications and explanatory frameworks from a variety of disciplines, including psychoanalysis, multicultural psychology, philosophy, and postmodern archival theory. The results underscored the need to rethink central tenets of traditional archival theory, such as questions of what constitutes the ―work‖ of archival professionals, and more broadly, the professional and theoretical identity of archivists. In particular, the migration testimonies collected by the Moving Here project exemplify a need for professional reflexivity about the definitions of the ―record.‖ </t>
   </si>
   <si>
     <t>Introduction
@@ -551,33 +518,6 @@
 Description: CLD) developed by M. Heany with examples of retrieval of specific services (built by libraries) based on it aims at making library students understand the functionality of such a concept derived from the archival community (mapping to ISDIAH needs to be introduced into the course). General introduction to identifiers and namespaces, and their functionality is given with the aim of laying the ground for understanding elementary notions of the semantic web.</t>
   </si>
   <si>
-    <t>According to Catherine Marshall, value (and accumulation) is an urgent challenge associated with personal archiving. Value and accumulation refers to an individual‘s ability to assign value to his or her information items so decisions about what to keep and what to discard can be made. To address this problems, Marshall calls for the development of "heuristic notions of value" to guide individuals in making decisions.
-The idea of "heuristic notions of value" is not new to the archival world, the concept mirrors archival appraisal. While articles about appraisal have appeared in archival-themed journals for decades, many in the personal information management (PIM) community are not aware of the concept, due to a lack of interdisciplinary connection between the fields. To move beyond a discussion over the use of "heuristic notions of value" and archival appraisal," I attempt to address this issue through the lens of saving and collecting behavior.
-While Marshall and several individuals in the archival field have identified the problems that saving behavior can cause in the practice of personal archiving, the discussion usually stops at identification. Upon closer inspection of individual saving behavior, what patterns emerge? Furthermore, what role do specific individual concepts play in saving behavior?
-I propose to study how individual concepts of identity influence saving behavior in personal archiving during life transitions. An individual‘s concept of identity can influence how an individual relates to others and relates to a particular group. Archival-related discussions of information seeking and collective memory have established the relevance of identity in archival science.
-Research into this type of behavior extends beyond the realm of information science and can be complimented by research conducted in studies of compulsive hoarding. According to Frost and Gross, compulsive hoarders view possessions as extensions of their identity, so much so that discarding a belonging symbolically translates to discarding their identity or a piece of themselves. While compulsive hoarding represents an extreme form of saving behavior, the measurements created by psychologists to assess compulsive hoarding can be utilized to detect patterns in saving behavior associated with personal archiving.
-Saving behavior is highlighted during certain life transitions, such as retirement. As more individuals retire from a career and/or downsize to a smaller home or retirement community, decisions must be made about what to purge and what to bring along to a new dwelling and/or lifestyle. Retirement can trigger reflection about identity and belongings and thus serves as an opportune example in which to study identity and saving behavior.
-Identifying patterns of saving behavior in personal archiving has implications for the archival profession as archivists attempt to a address the mounting traditional paper documents and digital documents that enter their doors. In order to inform collecting as suggested by Cunningham in the practice of pre-custodial intervention, archivists who work with donors need to understand saving patterns. A better understanding of saving can guide individuals as they attempt to manage their personal archives and aid archivists as they attempt to work with individual donors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contemporary individuals are constantly surrounded by evolving digital information technology. Consequently, they accumulate a large amount of personal digital materials overtime in their everyday lives. While individuals develop and practice their own methods to manage their personal digital materials using various on/off-line virtual spaces and tools, the question of how to manage personal digital materials effectively attracts researchers in various fields such as Personal Information Management (PIM) studies, Information Studies, Digital Humanities, and Computer Science.
-Considering the evidential, cultural, and social value of personal digital materials, there is an increased need for the long-term archival preservation of personal digital materials. Personal digital materials should be treated as archives and preserved beyond one’s lifetime so future generations of families, communities, and societies can learn about where they come from and who they are.
-Personal digital archives is a research theme exploring the long-term digital preservation of personal digital materials. Personal digital archives can be individual, private digital archives managed, operated, and maintained by people in their everyday lives. It requires grass-roots level archiving/preservation activities. It is a research area in which research efforts in various fields such as archival studies and studies of PIM systems can be mixed together and applied in the practice of what might be called “everyday life recordkeeping.” The preservation of cultural memories captured in personal documents both paper and recently digital form is one of the main duties of the archival profession for hundreds of years. Preservation practices, theories, and experiences developed in the archival profession will provide the foundation for the archival preservation of personal digital materials.
-In my research presentation, I will discuss the need of the grass-root level archiving/preservation in the digital age and what the archival profession can offer for establishing personal digital archives conceptually and practically. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old methods of communicating, like writing letters and keeping journals, have greatly diminished due to the prolific use of electronic mediums. Instead, web-based emails and blogs are prevalent. Personal documents (letters, journals, or other formal/informal documents) are precious materials for the future use to observe the era in which individuals lived. However, how many people realize that electronic letters and blogs could be vulnerable in the hands of today's service providers, not the creators'?
-Ultimately, personal records, in any format, as a rich historical resource has been and continue to be one of important materials that information professionals, not just archivists but also digital librarians and other professionals in memory institutions, need to handle and make available to users. However, little is known about how the general public maintains and preserves their records, especially in the web environment. In this sense, this study intends (1) to examine how the general public uses commercially provided web emails and blogs to keep their personal documents and history, and (2) to determine what roles information professionals need to play in assisting the general public to archive their data so it is not lost to future generations and historians.
-To do so, an online survey was created asking questions about the perceptions on archiving emails and blogs of service users, the current status of personal recordkeeping of email and blog contents, and expectations and functionalities of archiving tools that the users find useful or would like to have. From this survey, this study tried to draw the roles of information professionals in leading the general public to be more aware of the importance of their personal records, not only for their own purposes but also as a cultural resource.
-More than 350 email and blog users participated in this survey. Survey results were interesting and insightful as the participants were well aware of the risk of losing their contents in emails and blogs and of the fact that most email and blog service providers do not provide any method to backing up contents. Some even understood that their personal records will become a part of cultural heritage in the future and acknowledge its importance. However, there were not many participants actively sought a tool to preserve them. </t>
-  </si>
-  <si>
-    <t>Memory forms the fabric of human life, affecting everything from the ability to perform simple, everyday tasks to the recognition of self.  Memory establishes life’s continuity; it gives meaning to the present, as each moment is constituted by the past.  As the means by which we remember who we are, memory provides the very core of identity. -Marita Sturken, Tangled Memories: The Vietnam War, the AIDS Epidemic, Politics of Remembering
-The past is always with us, and it defines our present; it resonates in our voices, hovers over our silences, and explains how we came to be ourselves and to inhabit what we call ‘our homes.’ -Vijay Agnew, Diaspora, Memory, and Identity:  A Search for Home
-When people die the memory of their experiences goes with them if they (their experiences) are not documented in some way, made as record, collected and preserved.  Or as Sue McKemmish says, “At a more profound level, destroy the memory—the evidence those peoples ever lived in the place—and those cultures never existed as all.”  Records need to be made because without them there would be no evidence of the past.  Moreover, and perhaps more importantly, there can never be too many records of a past that was never documented in the first place from the point-of-view of those who lived the experience.  One’s personal records, e.g., letters, photographs, and home movies, are windows into one’s past that would be lost and forgotten if they were not produced and preserved to document life—one’s personal, historical, and cultural past.  “Documenting “home” in the diaspora: Memory, records, and identity” discusses the (dis)location of “home” in the diaspora in the context of the transnational immigrant experience and how “records” from that experience (re)produce and (re)configure “home” in multiple places.
-The diaspora implies being caught between two “worlds” where the individual’s experience is one of “dynamic tension every day between living ‘here’ and remembering ‘there’, between memories of places of origins and entanglements with places of residence, and between the metaphorical and the physical home.”    In other words, notions of home are confounded in the diaspora; and as such, the records of “home” produced by diasporic individuals and groups remake, as well as disperse their histories, experiences, cultures, and identities, while also haunting the collections and recollections of their memories. Using examples from the presenter’s own film work, this presentation will also demonstrate how personal records can be used to (re)create personal narratives as counter historical and cultural narratives, as they produced an alternate record that evidences identity and experience apart from and in addition to national records and official histories, (dis)locating “home” across the boundaries of place and (re)configuring it in the imaginary, creating the archives elsewhere and otherwise beyond the physical borders of the nation-state and its notion of citizenship.</t>
-  </si>
-  <si>
     <t>This paper articulates the value of postcolonial theory in information studies archival research that engages diasporic communities in the United States. Postcolonial studies offers a close analysis of power that can be utilized by information scholars who seek to understand how power is manifested and reproduced in information paradigms such as those in archival practice. In light of these aims the paper examines the specific project of archiving Filipina American women's social movements, which is one example of diasporic, transnational, postcolonial, third world, and feminist political resistance. 
 Postcolonial theory aids in the necessary reflexive examination of the scholar or archivist's relationship to the community and materials she collects, describes, and makes accessible about diasporic communities. Finally this paper forms recommendations for meaningful intellectual engagement with the existing project of Third World feminist and subaltern cultural studies to recover neglected cultural texts and forms of political resistance through an archival practice informed by feminist and postcolonial theory.</t>
   </si>
@@ -590,18 +530,6 @@
   </si>
   <si>
     <t>Contemporary archival literature has challenged traditional ideas about the concept of the archive, its functions and its power. These ideas, led by archival theorists such as Terry Cook and Verne Harris, have been shaped by a postmodern approach to archives. Similarly, the concept of collective memory has been extensively studied by a diverse number of disciplines. One key theme of this discussion has been the study of the collective memory of traumatic periods like authoritarian regimes and civil wars. In addition, the field of transitional justice has studied mechanisms that deal with past accounts of human rights violations. These mechanisms include truth commissions and transnational trials. In Latin America, transitions from authoritarianism to democracy have included a struggle for justice and accountability. Furthermore, challenges rise when communities confront the past. In other words, it is better to remember or to forget? The existence, absence, creation and preservation of records have significantly affected these struggles. With a focus in Latin America, this presentation will analyze the following questions: 1) how does the discovery, accessibility and declassification of records, the concealment and/or destruction of records by governments, and the work of Human Rights organizations shape the construction of collective memory?; 2) how does the archive is shaped by social and political struggles?; and 3) what are the implications of these challenges to the archival mission? To answer these questions this presentation will include a discussion of examples from Chile, Argentina and Guatemala, and the work of the National Security Archive in Latin America.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How archival processes are implicated in collective memory is a question of increasing theoretical interest to academic archivists. Unfortunately, most of the recent work has not explored empirically the role of  specific collections in the formative phases of collective memory representation. Exceptions include research on the  ̳indigenous archive‘ in Canada and Australia, however, the bulk of this work addresses questions of access and archives in colonial administration. I supplement this work by considering how archives function in the representation of American Indian tribal national identity. Specifically, my research explores how notions of archival evidence and authenticity are applied to specific classes of records by the Office of Federal Acknowledgment to evaluate petitions by indigenous peoples as part of the Federal Acknowledgment Process (FAP). Under FAP, tribal entities seek federal acknowledgment as tribal nations by using various types of records as evidence to satisfy seven specific criteria. I explain how conceptions of  ̳legitimate evidence‘ constitute one important mechanism through which records exert significant influence over the articulation and representation of a class of collective memory representations. </t>
-  </si>
-  <si>
-    <t>Where an archive can be a collection of paper-based or electronic records preserved together for the use of future generations, it can also be a collection of records held together through their storage within, and use by, the community to which they belong. This second description of an archive can include all record forms including oral memory transmitted by stories shared within families or communities; the land; archaeological evidence; paper records, audio-recorded histories, multi-media web pages, and digital archives; community, government and other organisational records; and, photographs, and visual and performance art – all being potentially valuable sources of community knowledge. Whilst this type of archive recognises cultural differences in preserving records for future generations, how does it function? What are the frameworks, processes and protocols, and relationship/s between this form of a community archive and other collections such as those formed by government and other organisations? Is there an awareness within the community that an archive exists? This is what my Indigenous Research Fellowship is planning on finding out.
-This research project will be working in partnership with the Gunditjmara community of the Lake Condah region of western Victoria to map their archive and the relationships between it and other archives over a two-year period. From this it is planned to develop an in-depth and rich understanding of all archival sources, forms and media relevant to a Koorie community, including their current use and the desired interaction of the community with their archive. The findings of the Project will assist future community management of their archive and support the development of archival frameworks, protocols and processes of Koorie archiving. This research will also benefit the archival community in developing a cultural perspective of Koorie archiving needs that will aid in the development of archival science principles and practices that are more culturally appropriate to the diverse communities that they address.
-Whilst this project will not be commencing until July 2009, this paper will be presenting the wheres and what fors that led to the development of this project including the ARC Linkage Project Trust and Technology: Building an archival system for Indigenous oral memory (T&amp;T) project and my thesis research Narratives of Koorie Victoria. These projects not only provided the catalyst for this research, but also the research methodology that many of us involved in the T&amp;T Project viewed as being necessary for successful research in this area. This paper will be part one of hopefully a series of papers over the period of this Institute looking at the development of the project and its outcomes as they occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contemporary ideas of race in Mexico are dominated by the concept of mestizaje (racial and cultural mixture). As the dominant paradigm, mestizaje has allowed for a somewhat unified idea of what it means to be “Mexican”. Although Mexican anthropologist, Gonzalo Beltrán estimated that enslaved Africans (or remnants thereof) was one of the largest population groups of Mexican society by the mid-Eighteenth Century, little or no reference is included in its grand narrative. After gaining independence from Spain, Mexico engineered a new national identity—one that considered itself to be mestizo (racially and culturally mixed). Mestizaje ideology permitted a sympathetic investigation of and linkage to the new nation’s Indigenous past.  In doing so, other minority groups, such as Mexicans of African descent, were silenced and “erased” from the official historical and contemporary narratives of Mexican nationhood and national identity. Despite strong historical evidence that indicates a large African population in colonial Mexico, the archetypical “Mexican” is even today represented to be mestizo—the product of an unproblematic cultural and racial “mixture” of Spanish and Indigenous people with no acknowledgment of the nation’s African heritage.  This situation is reinforced by official record-keeping, which provides no way for Mexicans of African descent to identify themselves as such, even though their communities continue to experience racial discrimination and marginalization.
-This representation will summarize the findings of a study conducted in 2008 that sought 1) to provide insight on how communities of African heritage became absent from Mexico’s official record; 2) to describe Mexico’s archival education infrastructure and identify the role that education of archival professionals might play in addressing or contributing to these absences; 3) using the case of Mexicans of African descent in the Costa Chica (home of the largest Mexican community of African descent), to delineate ways of remembering in non-Indigenous ethnic communities; and 4) to generate recommendations for how under-documentation and the resulting absences of these kinds of communities from the archival record might be partly remediated by changing how archivists are educated. </t>
   </si>
   <si>
     <t>Over the last two decades many Australian archival institutions and professionals have acknowledged the part they can play in the reconciliation process between Indigenous and non-Indigenous Australians. Australian Indigenous communities have been consulted about access, Memoranda of Understanding negotiated, indexing projects undertaken, exhibitions and guides to records developed and an awareness of the need for more culturally sensitive description and appraisal practices has grown. However, these initiatives have generally taken place within a paradigm that positions Indigenous people as subjects of records and clients of archival services. This paper will present recent research which highlights the need for new legal, policy and professional frameworks which re-position Australian Indigenous communities, and potentially other communities, as co-creators of archival records and co-providers of archival services. Trust and Technology: Building archival systems for Indigenous oral memory (T&amp;T) began in 2004 as a research project based at Monash University in partnership with the Public Record Office Victoria, the Koorie Heritage Trust Inc., the Victorian Koorie Records Taskforce, and the Australian Society of Archivists Indigenous Issues Special Interest Group. The aim of T&amp;T was to develop an understanding of how archives can support Koorie frameworks of knowledge, memory and evidence, particularly knowledge that is still stored within the community orally. However our research has highlighted that archivists cannot appropriately engage with Koorie knowledge unless we allow Koorie knowledge systems and Koorie experience to reshape the foundations on which our work is based. The paper will report on the action agenda developed as one of the outcomes of the research project.</t>
@@ -640,9 +568,6 @@
     <t>Poster</t>
   </si>
   <si>
-    <t>Panel Discussion</t>
-  </si>
-  <si>
     <t>Discussion Session</t>
   </si>
   <si>
@@ -856,19 +781,7 @@
     <t>Factors Affecting the Retention of Electronic Documents in the Workplace</t>
   </si>
   <si>
-    <t>Paper Session E. Faculty and Student Presentations</t>
-  </si>
-  <si>
-    <t>Paper Session F. Faculty and Student Presentations</t>
-  </si>
-  <si>
     <t>How We See Ourselves in our Stuff: Sense of Self in Digital Objects and Personal Digital Archiving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paper Session H. Faculty and Student Presentation </t>
-  </si>
-  <si>
-    <t>Paper Session I. Faculty and Student Presentations</t>
   </si>
   <si>
     <t>This presentation is a five year update of the study of core curriculum in graduate archival education programs in the United States  and Canada, completed by Jeannette Bastian and Elizabeth Yakel in 2003. The original study sought to identify core knowledge in archival curriculum through courses, syllabi and readings and was based on the premise that a core knowledge base, and the teaching of this knowledge base at a graduate level are distinguishing features of a profession.  Through analyzing archival curriculum in terms of core archival knowledge (primarily as identified by the Society of American Archivists), the investigators hoped to further solidify the core knowledge base and set a benchmark for analyzing how far the archives discipline had developed as a profession. One goal of the initial study was to provide a foundation for continual monitoring of the progress and developing trends in graduate archival education, preferably over five-year periods.  This current project seeks to utilize this foundation and establish this longitudinal process by addressing the first five-year period (2003-2008). The gathering and analyzing of relevant data based on the parameters of the initial study will be the first test of the viability of this model. 
@@ -879,76 +792,181 @@
 Information policy legislation, modernising and e-government and the emphasis on the role of museums, libraries and archives as cultural, social and educational resources, have placed archives and records management firmly on the UK government’s agenda, but also increased the need for reflection and research. This papers reflects on some of these issues in a UK context and reports on research carried out at UCL which aimed to create a map of the research landscape for the discipline in the UK; the establishment of the UK research Network for archives and records management, ARMReN; and work by the UK educators group, FARMER, which we hope will develop this work nationally and internationally.</t>
   </si>
   <si>
-    <t xml:space="preserve">This study examines the concept of genre in new and social media and its ramifications for archival theory and practice, particularly for the archival concept of appraisal (Cook, 2005). By analyzing our professional relationship to generic forms, we may be able to more adroitly design both our processes for assessing materials, therefore aiding in the development of the digital archive. Genre analysis, writes Norman Fairclough (2003), can contribute to researching the relationship between  "technological change, mediation, economic change, and wider social change- both in terms of how the integration of new technologies into economic, political, social, and cultural processes is instantiated through new genres, and in terms of how genre chains are woven into the fabric of the 'information society'." To apply this idea, I examine the development of two emerging genres of new and social media: the trend of “response videos” on video sharing sites, and the “net art” movement in contemporary visual art. 
+    <t>This paper will examine the social construction of moving image collections in YouTube, Google Video, and the Internet Archive, focusing particularly on these collections’ potential to usurp some of the functions of the cultural institutions such as libraries and archives.  By foregrounding the participants’ contributions to creation, description, and contextualization of the collection, these sites serve as de facto archives for discourse about political, social, and cultural events.  Their construction by community members, including the construction of networks of relationships among documents, is comparable to the activities of libraries and archives, particularly in participants’ acts of acquisition, collection development, description, and contextualization. What was formerly primarily the purview of the library or archive has now been appropriated by creators and users of these materials.  This paper will look closely at these acts of creation, linking, and appropriation of materials and collections in YouTube and other similar videosharing sites.  Particular attention will be given to the role of social tagging and commenting, comparing it to the discourse of curatorial commentary, and exploring what effects the videosharing sites have had on processes and practices in established cultural institutions for designing sites to access digitized collections.  Questions to be explored include:
+• In the wake of social networking sites such as YouTube, are libraries, archives, and museums creating more space for organic community and collection building?
+• What sorts of resources are available to users for creating “curatorial commentary” about collections, through social tagging, blogs, and the like?
+• How have cultural institutions integrated user input into decisionmaking in the areas of acquisition, appraisal, preservation, description, and access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The personnel who supervise evidence storage rooms in police departments—evidence technicians—are archivists and records managers in all but name. Their work is equally involved with issues of authenticity, reliability, and integrity. Statutes of limitations and codes of criminal procedure guide evidence techs‘ work in much the same way that retention schedules and processing guidelines shape the work of records managers. Archivists and evidence techs are also similar in that evolving public policies often take these professionals‘ work for granted, ignoring or failing to consider the impact of new technologies, procedures and statutory requirements on their ability to maintain important records for the long term. 
+The rapid proliferation of consumer video recording technologies has meant that evidence techs, and to a lesser degree archivists, now manage a growing number of audiovisual recordings as part of collections that must remain accessible, intact, and authentic. Many police departments now generate hundreds or even thousands of hours of video footage per year in the form of patrol tapes, custody-area surveillance, and suspect interviews; these are stored along with surveillance camera footage, crime scene recordings, and even bystander videos relating to crimes under investigation. Many of these recordings are made and stored on proprietary, unstable, or obsolescing media. 
+Digitizing video evidence in order to save space and integrate with other police information systems may ease management difficulties, but introduces other complications: commitment to untested and potentially unreliable vendor-driven systems, increased risk of catastrophic data loss, the conundrum of digital preservation. For evidence techs, the stakes for maintaining these records properly are very high indeed; archivists and records managers typically do not worry that murderers will walk free if their records are mismanaged or neglected, but evidence techs certainly do. 
+Drawing on research in the fields of surveillance studies, records management, archival science, audiovisual materials preservation, and criminal law, as well as site visits and field interviews with police personnel and other workers in the criminal justice system, this presentation situates the work of police evidence managers as an analogue of archives and records management. A particular emphasis is placed on police retention of audiovisual materials, and specifically videotape, as a potential model for issues that the archives community will face as repositories increasingly embrace late-20th century materials and digital records. </t>
+  </si>
+  <si>
+    <t>Drawing on the distinct knowledge domains of cultural studies and information and archival studies, this paper creates interdisciplinary conversations and interactions. It shares knowledge generated in different domains and challenges ways of thinking about culture, memory, social practice and the everyday through an examination of how people and institutions collect and archive objects – in this case zines. 
+Indefinable by form or content alone, zines create communities and networks. They are consumed and produced, and re‐produced and re‐consumed. They tell stories of lives and thoughts, and record and create memories. Zines are literary pieces, art works, personal disclosures and social currency. Zine cultures resist and challenge the archive through their ephemerality and lack of shared definition. 
+This paper considers zines and issues of definition, and examines two significant Australian zine  collections; one informal collection at the Octapod Association, a community arts space in Newcastle, NSW, and another collection in the Rare Printed section of the State Library of Victoria. These two collections, similar in size, age and content, have grown organically over the past decade, and are in differing states of preservation and access. Both collections challenge the spaces around them, through their form, content and surrounding cultures.</t>
+  </si>
+  <si>
+    <t>In recent years archival description has been transformed almost beyond recognition. Online catalogues have replaced paper lists. These resources and, albeit to a lesser degree, the records they describe, can now be accessed across the world at the click of a mouse. The catalyst for this change is clearly rooted in the dawning of the digital age and the exciting possibilities that it brings. The breakneck pace of this evolution has, however, taken its toll. The archive profession is now in the paradoxical situation of being simultaneously both more and less sure about what archival description is than ever before. 
+More sure, because the standardisation efforts of the last twenty years mean we now have internationally agreed rules which lay down the information archival description should contain and how that information should be broken down into individual data elements. This view has archival description as just another form of metadata, broken down manageable chunks that we can manipulate, map and exchange to our heart’s content so long as we get the technology right.
+Less sure, because recent postmodern debate has meant we can no longer view archival description as a static and objective carrier of fact, external to the records it describes. Rather it is a subjective, evolving creation that is itself implicated in the creation of the ‘record’, whatever that is. Then again, the shift to electronic records means that we can no longer get our hands on, let alone a handle on the stuff with which we deal.
+This presentation will describe my attempts to resolve this paradox. It will outline the challenges I have faced in implementing my chosen method, grounded theory development, and outline progress to date. Initial ideas emerging from early data collection at The National Archives in London will be discussed.</t>
+  </si>
+  <si>
+    <t>In 2008, the SAA student chapter at UCLA created an outreach program known as the Bruin Archives Project (BAP).  BAP was initiated following an SAA student membership tour to UCLA's University Archives in which the archivists expressed a need for increasing documentation of student life.  Student chapter officers envisioned BAP as a way to: 1) increase student group representation in the University Archives holdings, 2) assist campus organizations with documenting their history, and 3) provide practical experience in archival processing to Information Studies graduate students.
+Working in conjunction with the UCLA University Archives and the Center for Student Programming (the office responsible for annually registering student groups), officers developed and administered a survey to  student organizations.  The survey contained questions about the types of documents kept, efforts toward archival documentation, and potential participation in the project.  Over 70 groups responded. A public website was also created for the BAP.  At the start of the 2008-09 school year, the chapter installed a new officer, the BAP Coordinator, whose responsibility is to oversee the project and match interested groups with student archivists to initiate archival processing. 
+At AERI 2009, a poster on this project will outline the progress we have made, challenges, and our future plans including a collaborative website and OPAC access to archival finding aids.  We hope that this program can serve as a model for other SAA students, chapters, and university groups who may implement similar programs at their institutions.</t>
+  </si>
+  <si>
+    <t>This poster will present the preliminary findings of a qualitative study on the practices of recordkeeping in American medical practice and in the less formal, but very pervasive, phenomenon of pregnancy diaries and baby books. 
+The first part of the poster will ask: How are women categorized and monitored during pregnancy? Existing research points to a racialized and economically inflected set of categories that tend to criminalize pregnancy in women of low socio-economic status (SES) and in women of color regardless of SES. How might the kinds of information, the frequency of its collection, the practices through which it is collected, as well as the responsibility for collecting and keeping information, shape both individual women‘s experiences of maternity and our broader social understanding or imaginary of pregnancy and the pregnant body? It will be argued that current practices of recordkeeping contribute to forming the pregnant body as an aberrant figure to be reined in, regulated and reformed.
+The second part of the poster considers the long-term practices of remembering pregnancy: of storing and displaying, as well as hiding and destroying the records of a nine-month period. As a short time in the life of an individual woman, the personal record of pregnancy tends to be integrated into larger archives, and thus in a sense rendered invisible. This section explores the significance of archival organization for research into pregnancy. How might archival practice inflect the ways in which researchers encounter and explore the memories of pregnancy?</t>
+  </si>
+  <si>
+    <t>Archival studies programs have been opened in several graduate schools in South Korea (officially known as the Republic of Korea) since 1999. However, because the Korean government needed archivists quickly to effectively manage and preserve its government records, graduate archival education programs have been opened without enough preparation. They are not yet well organized and have several issues. Many in the Korean archival community question the quality of the country‘s archival education and the qualification of its archivists. 
+This study investigates current Korean graduate archival education programs and identifies issues that should be considered for their development. For this study, the author has reviewed relevant literature and examined curricula of Korean graduate archival education programs via their websites. Previous attendance at workshops and conferences of Korean archival professional associations and previous consultations with archival educators and archivists has helped the author identify issues in current archival education. 
+Preliminary findings show that Korean archival programs are interdisciplinary in many graduate schools. This characteristic and the absence of unified guidelines for graduate programs in archival studies produce great diversity in the discipline across all of Korea. This diversity in graduate archival education programs seems likely to cause great variation in the level of skill and knowledge of Korean archival students and professional archivists. Final findings will provide more information on Korean graduate archival education programs and their relationship to archival practice.</t>
+  </si>
+  <si>
+    <t>One of the key findings, from the Clever Recordkeeping Metadata Project was to see the extent to which paper models dominate recordkeeping practices and inhibit opportunities for automated recordkeeping metadata capture and re-use. At the same time, the project also identified the potential in emerging service oriented architectures to progress the idea of being able to integrate recordkeeping processes into digital business process that allow the capture of recordkeeping metadata in more sustainable and scalable ways. However, being able to take advantage of this potential requires further investigations into what recordkeeping may look like as a suite of services, along with what recordkeeping requirements may be entailed in these architectures. A part of this is to also identify, conceptualize and realize new recordkeeping infrastructure for these new environments. Addressing these issues requires a complex mix of research and practical activities, that can take emergent ideas, explore their promise, shepherd their development and foster their realization and deployment in disciplined systems. This suggests the need for researchers and practitioners to be able to come together in ‘healthy hothouses’ capable to nurture recordkeeping innovation.
+One such area where there could be an opportunity to employ such an approach is in the area of eResearch. In this space research data management is a hot topic. Many are grappling with what is required for the creation, capture, management and ongoing use of large quantities of digitally recorded and networked information objects generated in and/or of relevance to research processes to allow for the collaboration across time and space that is a fundamental method of scholarly practice (Courant 2006). Archives have of course played an important role in such research infrastructure in the paper world. Hence there is an opportunity to bring this expertise and experience to the eResearch space, and explore how practices, tools and systems must be re-imagined and re-figured in order to meet challenges of research data and other records creation, management and use for digital and networked environments.
+This presentation will explore research data management from a recordkeeping perspective and identify opportunities specific to the eResearch space as well as for recordkeeping in general that could be explored and developed through practical and research partnerships in academic settings.</t>
+  </si>
+  <si>
+    <t>The Digital Curation Centre's Curation Lifecycle is a high-level model of the activities that comprise digital curation. It is intended for organizations to use to model their data curation activities, identifying the specific actions, technologies, standards and skills required at each stage, and adding to it or deleting from it where required. The model is intended to apply to a wide range of digital curation contexts, institutional repositories, digital archives, and electronic records management among them.
+The DCC Curation Lifecycle appears to have significant potential to be applied as a framework for a curriculum for teaching digital preservation in the archives context. This presentation reports the results of attempts to apply the Curation Lifecycle as the basis of a digital preservation course in two countries.</t>
+  </si>
+  <si>
+    <t>A large part of archival practice through the ages has been concerned, for very sound societal and pragmatic reasons, with describing the holdings of archives and documenting the actions and activities performed upon or associated with those holdings. Using contemporary terminology, we could place all of these descriptive and documentary activities under the broad, although these days all-too-vague heading of “metadata.”  We have archaeological evidence that such metadata was created and maintained within some of the earliest and most prototypical textual archives in Asia Minor and elsewhere.  Historical metadata practices, however, while they might exhibit characteristics that would seem familiar to archivists today, have been far from monolithic. European medieval chanceries and later renaissance and reformation archives provide ample examples of various systems of arrangement and description that were proposed, implemented, revised, abandoned or maintained.  The publication of Muller, Feith and Fruin’s Manual on the Arrangement and Description of Archives in 1898 in Groningen, which delineated European practices of arrangement and description, together with its presentation at the 1910 International Congress of Libraries and Archives in Brussels, and subsequent translations around the world are often pointed to as the seminal events that resulted in the de facto codification of ideas about archival descriptive practices.  This codification eventually led to worldwide acceptance following the 1993 approval of the ISAD(G), General International Standard Archival Description by the International Council on Archives Ad Hoc Commission on Descriptive Standards in Stockholm. 
+Today the ability at least to contemplate widespread exchange of archival information based upon a common set of metadata structures and conceptualizations is generally considered to be an enormous advance upon the long-extant status quo of standalone, idiosyncratic archival repositories operating in distinct national and organizational contexts. Nevertheless, the status of archival metadata is something that deserves further critical analysis and reflection.  There remain wide variations in archival metadata practices around the globe as different archival traditions in different cultural and bureaucratic communities strive to maintain local and Indigenous practices or seek to create new national or sector-relevant standards, yet still interface with global but arguably Eurocentric standards.  Moreover, the creation of volumes of digital records so vast and complex that no archives can realistically contemplate manual metadata creation, coupled with the potential of Web 2.0 for spreading the burden of metadata creation beyond the archive and archivists together raise abundant new questions about the provenance, nature and role of metadata, as well as that of the archivist as the sole author of that metadata.
+This paper will consider the intellectual lineage of ideas about metadata and the motivations and perspectives underlying them.  It will then reflect upon the implications of those ideas for contemporary concerns of global information exchange, sovereignty, democratization, pluralization, accessibility and scalability.</t>
+  </si>
+  <si>
+    <t>University of California Los Angeles; Los Angeles Public Library; University of California Los Angeles; Central Washington University; University of California Los Angeles; Mayme Clayton Library and Archives; University of California Los Angeles; Autry National Center; University of California Irvine; California State Polytechnic University Pomona</t>
+  </si>
+  <si>
+    <t>[No title in program.]</t>
+  </si>
+  <si>
+    <t>[No abstract in program.]</t>
+  </si>
+  <si>
+    <t>Beth Yakel; Richard Cox; Terry Cook; Sue McKemmish; Andrew Lau</t>
+  </si>
+  <si>
+    <t>[No presenter institution in program.]</t>
+  </si>
+  <si>
+    <t>[No presenter in program.]</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm; http://aeri.website/2009-conference-schedule/</t>
+  </si>
+  <si>
+    <t>http://aeri.website/research-methodologies-for-community-engagement-disparate-ideas-as-opportunities-to-enhance-understanding/; https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; http://aeri.website/2009-conference-schedule/; Ricci listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm</t>
+  </si>
+  <si>
+    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm;
+http://aeri.website/2009-conference-schedule/
+Lindbergh listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm#llindbergh</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/2009.htm. 
+Appears on the website (https://aeri.gseis.ucla.edu/2009.htm) but not in program pdf at https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf.</t>
+  </si>
+  <si>
+    <t>University of Melbourne and Monash University; Monash University; Monash University</t>
+  </si>
+  <si>
+    <t>Disparate Ideas as Opportunities to Enhance Understanding</t>
+  </si>
+  <si>
+    <t>University of Michigan; University of Pittsburgh; University of Manitoba; Monash University; University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>University of Melbourne and Monash University</t>
+  </si>
+  <si>
+    <t>The advent of the electronic record and the development of the internet is moving society quickly into a global world. Through global media and communication technologies such as the internet virtually everyone on earth is exposed to diverse cultural institutions. The availability of digital cultural information is opening a whole new world to archivists, historians and scholars. Its rich, unique content and historical value is attracting enormous attention from researchers from all over the world. This increased accessibility of archival information is largely made possible by the development of electronic finding aids and is accelerated by the wide spread of international standardization. Global standardization is understood by diverse information communities as the most efficient way to solve the problem of how to more effectively exchange digital information across different databases. People seek to standardize systems to reduce the idiosyncratic organizational practice to encourage conformity in support of data exchange and use. Without common standards in order to improve the accessibility of cross-domain searching and access, professionals working in different standards would have to understand the descriptive standards which are used in every other domain.
+The history of globalization of descriptive standards in the archival field dates from 1999. The question of producing common international standards was addressed by the International Council on Archives‘s (ICA) Ad Hoc Commission on Archival Description, set up in 1990, and the General International Standard Archival Description (ISAD(G)) was developed as the international standard framework. The purpose of ISAD(G) is to identify and explain the context and content of archival materials in order to promote accessibility internationally and to provide general guidance for the preparation of archival descriptions. It provides short, clear rules for archival description, with specific examples, and established the principle of hierarchical description that controls records‘ contexts.
+However, the standard tends to ignore the perspective of marginalized user groups and targets large organizational systems, in particular, Western system. All these new efforts to build global standards supporting diverse schema are exclusively led by Western countries, mainly North American, Western European countries, and Australia. Countries outside the mainstream have had little opportunity to participate in developing the ISAD(G) and to reflect their concepts in building the standard. This exclusion has resulted in a lack of consideration of the needs of other countries and has imposed upon non-Western countries the archival paradigm generated in the mainstream of Western countries in the new digital era.
+So, this study is mainly interested in how the process of standardization impacts the local practice in recordkeeping management systems. In particular, this research is interested in the adoption process of ISAD(G) standards in Korea. Through this analysis, this study aims to examine how standards are related to the social values in the different cultures by closely looking at how a Western standard can take control over the historical documentation of a non-Western society. While several studies have been conducted on the impact of standardization in terms of technological development and economic benefit, there is still little empirical research on standard setting, especially in terms of the various mechanisms of the socio-cultural factors effect of global standards at the level of local practice. A social-constructivist perspective provides a useful starting point for getting at the social dynamics effecting global standardization and was adopted as the main theoretical framework for this study.</t>
+  </si>
+  <si>
+    <t>Paper Session D: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>Paper Session C: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>Paper Session B: Faculty and Student Presentations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Session H: Faculty and Student Presentation </t>
+  </si>
+  <si>
+    <t>Paper Session G: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>Paper Session F: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>Paper Session E: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>Paper Session I: Faculty and Student Presentations</t>
+  </si>
+  <si>
+    <t>All Things We Cannot Articulate': Archives and Commemoration in a Former Leper Colony in the Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study examines the concept of genre in new and social media and its ramifications for archival theory and practice, particularly for the archival concept of appraisal (Cook, 2005). By analyzing our professional relationship to generic forms, we may be able to more adroitly design both our processes for assessing materials, therefore aiding in the development of the digital archive. Genre analysis, writes Norman Fairclough (2003), can contribute to researching the relationship between "technological change, mediation, economic change, and wider social change--both in terms of how the integration of new technologies into economic, political, social, and cultural processes is instantiated through new genres, and in terms of how genre chains are woven into the fabric of the 'information society'." To apply this idea, I examine the development of two emerging genres of new and social media: the trend of “response videos” on video sharing sites, and the “net art” movement in contemporary visual art. 
 As a first case study, I look at the emerging genre of "response videos". I first examine the discursive role of user actors in creating content for commercial video sharing sites, such as Youtube and Vimeo. I then articulate some key differences between the consumer-produced (“prosumer”, as termed by Lev Manovitch (2001)) content and the professionally produced commercial materials with which they interact. Other aspects for analysis include their textual and inter-textual conventions, their orders and hierarchies, and the negotiable object boundaries of the videos. The practice of "commenting" is considered in context of comment and review practices in new media environments.
 In a second case, I examine both the artifacts of the "Net Art" movement and their integration into visual art institutions. I look at Net Art’s experiments in form, object, and definition (Greene, 2004).  I then examine the consensus-based procedures of an institution dedicated to the "creation, presentation, preservation, and critique" of artistic practices engaging technology, Rhizome at the New Museum, a hybrid museum/web forum. 
 In bringing this analysis to the archival arena, I hope to raise some functional and conceptual questions. How will the new archive work, and what form will the objects and collections within it take?  That is, what is the place/product that would be built to house objects, and how can we save them in a manner that reflects what we (as information scientists, knowledge organization specialists, archival thinkers) know about storing, accessing and authenticating objects in archives. (Cox, 2004; Duranti,1998)  In reconsidering the role that genre plays in our handling of material, we can also enrich our understanding of appraisal processes.
 This work is situated in a larger study of descriptive practices and contextual elements of description across Libraries, Archives, and Museums institutions. Drawing on the literature of Critical Discourse Analysis, New Media studies, Archival Studies and Knowledge Organization, this study attempts to extricate knowledge organization practices in emergent media and draw parallels between description in LAM institutions and in personal and community settings. </t>
   </si>
   <si>
-    <t>This paper will examine the social construction of moving image collections in YouTube, Google Video, and the Internet Archive, focusing particularly on these collections’ potential to usurp some of the functions of the cultural institutions such as libraries and archives.  By foregrounding the participants’ contributions to creation, description, and contextualization of the collection, these sites serve as de facto archives for discourse about political, social, and cultural events.  Their construction by community members, including the construction of networks of relationships among documents, is comparable to the activities of libraries and archives, particularly in participants’ acts of acquisition, collection development, description, and contextualization. What was formerly primarily the purview of the library or archive has now been appropriated by creators and users of these materials.  This paper will look closely at these acts of creation, linking, and appropriation of materials and collections in YouTube and other similar videosharing sites.  Particular attention will be given to the role of social tagging and commenting, comparing it to the discourse of curatorial commentary, and exploring what effects the videosharing sites have had on processes and practices in established cultural institutions for designing sites to access digitized collections.  Questions to be explored include:
-• In the wake of social networking sites such as YouTube, are libraries, archives, and museums creating more space for organic community and collection building?
-• What sorts of resources are available to users for creating “curatorial commentary” about collections, through social tagging, blogs, and the like?
-• How have cultural institutions integrated user input into decisionmaking in the areas of acquisition, appraisal, preservation, description, and access?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The personnel who supervise evidence storage rooms in police departments—evidence technicians—are archivists and records managers in all but name. Their work is equally involved with issues of authenticity, reliability, and integrity. Statutes of limitations and codes of criminal procedure guide evidence techs‘ work in much the same way that retention schedules and processing guidelines shape the work of records managers. Archivists and evidence techs are also similar in that evolving public policies often take these professionals‘ work for granted, ignoring or failing to consider the impact of new technologies, procedures and statutory requirements on their ability to maintain important records for the long term. 
-The rapid proliferation of consumer video recording technologies has meant that evidence techs, and to a lesser degree archivists, now manage a growing number of audiovisual recordings as part of collections that must remain accessible, intact, and authentic. Many police departments now generate hundreds or even thousands of hours of video footage per year in the form of patrol tapes, custody-area surveillance, and suspect interviews; these are stored along with surveillance camera footage, crime scene recordings, and even bystander videos relating to crimes under investigation. Many of these recordings are made and stored on proprietary, unstable, or obsolescing media. 
-Digitizing video evidence in order to save space and integrate with other police information systems may ease management difficulties, but introduces other complications: commitment to untested and potentially unreliable vendor-driven systems, increased risk of catastrophic data loss, the conundrum of digital preservation. For evidence techs, the stakes for maintaining these records properly are very high indeed; archivists and records managers typically do not worry that murderers will walk free if their records are mismanaged or neglected, but evidence techs certainly do. 
-Drawing on research in the fields of surveillance studies, records management, archival science, audiovisual materials preservation, and criminal law, as well as site visits and field interviews with police personnel and other workers in the criminal justice system, this presentation situates the work of police evidence managers as an analogue of archives and records management. A particular emphasis is placed on police retention of audiovisual materials, and specifically videotape, as a potential model for issues that the archives community will face as repositories increasingly embrace late-20th century materials and digital records. </t>
-  </si>
-  <si>
-    <t>Drawing on the distinct knowledge domains of cultural studies and information and archival studies, this paper creates interdisciplinary conversations and interactions. It shares knowledge generated in different domains and challenges ways of thinking about culture, memory, social practice and the everyday through an examination of how people and institutions collect and archive objects – in this case zines. 
-Indefinable by form or content alone, zines create communities and networks. They are consumed and produced, and re‐produced and re‐consumed. They tell stories of lives and thoughts, and record and create memories. Zines are literary pieces, art works, personal disclosures and social currency. Zine cultures resist and challenge the archive through their ephemerality and lack of shared definition. 
-This paper considers zines and issues of definition, and examines two significant Australian zine  collections; one informal collection at the Octapod Association, a community arts space in Newcastle, NSW, and another collection in the Rare Printed section of the State Library of Victoria. These two collections, similar in size, age and content, have grown organically over the past decade, and are in differing states of preservation and access. Both collections challenge the spaces around them, through their form, content and surrounding cultures.</t>
-  </si>
-  <si>
-    <t>In recent years archival description has been transformed almost beyond recognition. Online catalogues have replaced paper lists. These resources and, albeit to a lesser degree, the records they describe, can now be accessed across the world at the click of a mouse. The catalyst for this change is clearly rooted in the dawning of the digital age and the exciting possibilities that it brings. The breakneck pace of this evolution has, however, taken its toll. The archive profession is now in the paradoxical situation of being simultaneously both more and less sure about what archival description is than ever before. 
-More sure, because the standardisation efforts of the last twenty years mean we now have internationally agreed rules which lay down the information archival description should contain and how that information should be broken down into individual data elements. This view has archival description as just another form of metadata, broken down manageable chunks that we can manipulate, map and exchange to our heart’s content so long as we get the technology right.
-Less sure, because recent postmodern debate has meant we can no longer view archival description as a static and objective carrier of fact, external to the records it describes. Rather it is a subjective, evolving creation that is itself implicated in the creation of the ‘record’, whatever that is. Then again, the shift to electronic records means that we can no longer get our hands on, let alone a handle on the stuff with which we deal.
-This presentation will describe my attempts to resolve this paradox. It will outline the challenges I have faced in implementing my chosen method, grounded theory development, and outline progress to date. Initial ideas emerging from early data collection at The National Archives in London will be discussed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anecdotal evidence reviewed in literature and personal discussions with managers of digital archives suggests that one of the greatest hindrances to the successful preservation of resources in digital archives is the high level of repeatable activities that are required to be performed in order to maintain access to digital collections over time. Equally troublesome is  the rate at which digital file formats become ―obsolete‖ or not readable by current computer software and/or hardware. It is not currently clear or documented what the actual needs are or which tools should be developed which could best ameliorate these issues in the digital archives environment. 
+    <t>In the early twentieth century, at a moment when research libraries and state archives spread across the country, a small group of collectors, book dealers, librarians, and anthologists began to create an alternative archive, one that documented the lives of African Americans who were often absent from or hidden within official repositories. Their work, which entailed collecting overlooked documents and buying books undervalued in the rare book market, eventually resulted in the founding of the nation’s most important research collections on African American history.  No single motivation animated their work, however. Collectors interested in Afro-Americana ranged from the white Mississippi cotton planter and ardent segregationist Alfred Stone to the Afro-Puerto Rican bibliophile Arthur Schomburg, who assembled a vast library that became a landmark of the New Negro and Harlem Renaissance movements. 
+Prompted by this complicated history of race in the archive, my research contemplates the relationship between collections, historical memory, and social movements. Prompted by Harlem Renaissance writer Claude McKay’s 1937 call to form a black writers’ group as a “living counterpart” to Arthur Schomburg’s archive of the African diaspora, I am specifically interested in historically situating the relationship between textual collections and social collections in this period. 
+Part of a larger study, this paper will concentrate on the work of black collectors/activists in the 1920s, such as Schomburg and Hubert Harrison, in order to think about how archives helped to shape race consciousness in the early twentieth century. By examining collectors’ artifacts—correspondence, lists, prefaces, bibliographies, catalogs, and advertisements—it traces the collaborations and disagreements that contextualize the place of archive-building projects in broader social and intellectual trends.  Their work speaks to the intertwined nature of African American print culture and political mobilization between 1916 and 1945, a period in which race emerged as an object of intensive documentary engagement in government, literary, ethnographic, and historical projects. In considering the divergent motivations that led black and white collectors to accumulate Afro-Americana and the blurred categories of American nationality and black nationalism marking the era’s diverse collections, this paper argues for the need to better understand the knowledge production practices that made the archive a site of contestation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data potentially relevant to epidemiological study are likely mired in a backlog of text based documentation not easily translated into useable statistical data. This may be especially true in parts of the world most urgently in need of intervention through epidemiologic study. While epidemiologists may be interested in the spread of disease within target populations, archivists are interested in documenting and preserving the context for data collection. If patterns of outbreaks are to be identified and studied capturing essential information accurately is crucial; similarly, the original record keeping system (i.e. textual data) must remain intact and preserved over time in order to further substantiate results. Building digital data sets from this information would essentially become its own archive which could be exploited for research use in myriad ways while protecting the context in which the data was collected and extracted. This paper will outline some of the challenges in the preservation and providing public access to infectious disease data from Southeast Asia and will include some discussion on cultural perspectives that help or hinder access. </t>
+  </si>
+  <si>
+    <t>Topics for discussion to include ranking scholarly and professional journals; sustaining archival education programs; building new cohorts of educators and researchers; international collaboration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anecdotal evidence reviewed in literature and personal discussions with managers of digital archives suggests that one of the greatest hindrances to the successful preservation of resources in digital archives is the high level of repeatable activities that are required to be performed in order to maintain access to digital collections over time. Equally troublesome is  the rate at which digital file formats become―obsolete or not readable by current computer software and/or hardware. It is not currently clear or documented what the actual needs are or which tools should be developed which could best ameliorate these issues in the digital archives environment. 
 I intend to conduct a survey of the state, university, and cultural archivists who are working with mid-sized digital collections. The overarching goal of the survey will be to determine whether or not the archivists feel that computer automation services could help with the digital preservation measures they are asked to perform, and if they do feel they could benefit from such technology, which computer automation tools could best meet their needs.
 I also intend to introduce the concept of an automation process which is informed by an online social network of an inner circle of authorized participants who have proven expertise in file format obsolescence, migration, and emulation; as well as an outer circle of the greater participating population. This survey will solicit the feelings, opinions, suggestions, and needs as they relate to these issues, specifically as they relate to the idea of authority control and the varying levels in the definition of obsolescence risk. This survey will be the first step to inform an iterative design of a socially informed automated file format obsolescence notification and file format migration/emulation system built in the iRODS (irods.org) environment. </t>
   </si>
   <si>
-    <t>In 2008, the SAA student chapter at UCLA created an outreach program known as the Bruin Archives Project (BAP).  BAP was initiated following an SAA student membership tour to UCLA's University Archives in which the archivists expressed a need for increasing documentation of student life.  Student chapter officers envisioned BAP as a way to: 1) increase student group representation in the University Archives holdings, 2) assist campus organizations with documenting their history, and 3) provide practical experience in archival processing to Information Studies graduate students.
-Working in conjunction with the UCLA University Archives and the Center for Student Programming (the office responsible for annually registering student groups), officers developed and administered a survey to  student organizations.  The survey contained questions about the types of documents kept, efforts toward archival documentation, and potential participation in the project.  Over 70 groups responded. A public website was also created for the BAP.  At the start of the 2008-09 school year, the chapter installed a new officer, the BAP Coordinator, whose responsibility is to oversee the project and match interested groups with student archivists to initiate archival processing. 
-At AERI 2009, a poster on this project will outline the progress we have made, challenges, and our future plans including a collaborative website and OPAC access to archival finding aids.  We hope that this program can serve as a model for other SAA students, chapters, and university groups who may implement similar programs at their institutions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collective memory‘ has emerged as a central concept in archival science. Despite many impressive efforts interrogating the archives-collective memory relationship, there is a lack of clarity about both the concept of collective memory and its relationships to archives. I describe the questions, methods, and findings of research with Ricardo Punzalan that aims to identify the contributions of archival science to memory studies and the uses of the collective memory concept in the field. </t>
+    <t xml:space="preserve">Collective memory' has emerged as a central concept in archival science. Despite many impressive efforts interrogating the archives-collective memory relationship, there is a lack of clarity about both the concept of collective memory and its relationships to archives. I describe the questions, methods, and findings of research with Ricardo Punzalan that aims to identify the contributions of archival science to memory studies and the uses of the collective memory concept in the field. </t>
   </si>
   <si>
     <t>This poster presentation is a call to action for the archival and records communities to become aware and involved in the American Indian Records Repository.
-The American Indian Records Repository, a joint venture between the Department of Interior and the National Archives and Records Administration initiated in 2003, currently houses more than 200,000 cubic feet of American Indian records, approximately 300 million pages, or 37 miles of material in football field size rooms
-carved out of limestone one hundred feet below the surface of Lenexa, Kansas. The initiating memorandum envisions that eventually all American Indian records will be storied at AIRR.
-AIRR is an institution born of litigation. Due to the Cobell v. Kempthorne litigation concerning the accurate accounting for Individual Indian Money trust funds -- litigation now in its twelfth year -- access to records within AIRR is strictly controlled. What goes in never leaves. To visit requires federal security clearance.
+The American Indian Records Repository, a joint venture between the Department of Interior and the National Archives and Records Administration initiated in 2003, currently houses more than 200,000 cubic feet of American Indian records, approximately 300 million pages, or 37 miles of material in football field size rooms carved out of limestone one hundred feet below the surface of Lenexa, Kansas. The initiating memorandum envisions that eventually all American Indian records will be storied at AIRR.
+AIRR is an institution born of litigation. Due to the Cobell v. Kempthorne litigation concerning the accurate accounting for Individual Indian Money trust funds--litigation now in its twelfth year--access to records within AIRR is strictly controlled. What goes in never leaves. To visit requires federal security clearance.
 Access to any of the more than 300 million pages of documents within AIRR must be formally requested through a single individual in Albuquerque, New Mexico.
 The original AIRR Memorandum of Understanding required formal periodic reevaluation of the agreement at intervals of no less than five years. In September of 2008, five years passed.
 This poster presents an analysis of the intentions of the original stakeholders at the inception of AIRR, the current status and posture of AIRR, and envisions an AIRR that is designed to serve not the litigation interests of the US government, but an AIRR that is designed to serve the future contours of Indian Country, putting the American Indian perspective back into the shaping of the American Indian Records Repository.
 This poster strives to bring to the attention of the archival community the massive and expensive investment being made in literally burying American Indian records, out of sight, out of mind, out of reach of Indian Country. Furthermore, this poster urges the archival community to take proactive steps towards becoming engaged stakeholders in formulation of the next AIRR Memorandum of Understanding.</t>
   </si>
   <si>
-    <t>This poster will present the preliminary findings of a qualitative study on the practices of recordkeeping in American medical practice and in the less formal, but very pervasive, phenomenon of pregnancy diaries and baby books. 
-The first part of the poster will ask: How are women categorized and monitored during pregnancy? Existing research points to a racialized and economically inflected set of categories that tend to criminalize pregnancy in women of low socio-economic status (SES) and in women of color regardless of SES. How might the kinds of information, the frequency of its collection, the practices through which it is collected, as well as the responsibility for collecting and keeping information, shape both individual women‘s experiences of maternity and our broader social understanding or imaginary of pregnancy and the pregnant body? It will be argued that current practices of recordkeeping contribute to forming the pregnant body as an aberrant figure to be reined in, regulated and reformed.
-The second part of the poster considers the long-term practices of remembering pregnancy: of storing and displaying, as well as hiding and destroying the records of a nine-month period. As a short time in the life of an individual woman, the personal record of pregnancy tends to be integrated into larger archives, and thus in a sense rendered invisible. This section explores the significance of archival organization for research into pregnancy. How might archival practice inflect the ways in which researchers encounter and explore the memories of pregnancy?</t>
-  </si>
-  <si>
-    <t>In 2007 the USGS started the National Geological and Geophysical Data Preservation Program  (NGGDPP).  In the second phase of this program they awarded grants to state geological surveys to develop long range plans for data preservation and create metadata for their holdings to be uploaded in to the newly created national catalog for geological data sets.  The USGS identified a need for the preservation of geological data and encouraged states to develop plans to sustain their data into the future.  However the people tasked with creating these plans are not trained archivists.  It is common for the role of archivist or curator of a geological collection to fall upon a professional geologist who has not been trained in the methods of access and preservation.  
-This research will address the questions of how these non archivists developed long range plans, what they did and why they chose these methods. I want to look at how they faced these issues, if they are aware of the existing archival knowledge and how they approached this task on their own. I will also look at their perception of success and perceptions of importance with in their organizations - how they determined what materials to preserve and how they measure the success of their efforts. I am also interested in what motivates them to save the data they collect and how they share it outside of their organization. 
+    <t>In 2007 the USGS started the National Geological and Geophysical Data Preservation Program  (NGGDPP). In the second phase of this program they awarded grants to state geological surveys to develop long range plans for data preservation and create metadata for their holdings to be uploaded in to the newly created national catalog for geological data sets. The USGS identified a need for the preservation of geological data and encouraged states to develop plans to sustain their data into the future. However the people tasked with creating these plans are not trained archivists. It is common for the role of archivist or curator of a geological collection to fall upon a professional geologist who has not been trained in the methods of access and preservation.  
+This research will address the questions of how these non archivists developed long range plans, what they did and why they chose these methods. I want to look at how they faced these issues, if they are aware of the existing archival knowledge and how they approached this task on their own. I will also look at their perception of success and perceptions of importance with in their organizations--how they determined what materials to preserve and how they measure the success of their efforts. I am also interested in what motivates them to save the data they collect and how they share it outside of their organization. 
 In order to conduct this research I will conduct interviews with a small group of the collection managers for these state surveys. During these interviews I will ask them specific questions about their background and training, how important they feel their job is for their organization and about their daily tasks. I will also ask them about how they developed their long range plans, what resources they used and how they plan to implement them in the future.  This will include questions about funding and support by their organization.
-This project is relevant to the development of new methods for preservation of materials in the field of geology.  It is important to discover what types of resources these subjects reference and where they go for information as well as what their information needs are for this area.  There is currently very little literature on the preservation methods of Geologists.  By conducting this research I will help shed light on this area of work and learn more about what research needs to be done in this field</t>
-  </si>
-  <si>
-    <t>Archival studies programs have been opened in several graduate schools in South Korea (officially known as the Republic of Korea) since 1999. However, because the Korean government needed archivists quickly to effectively manage and preserve its government records, graduate archival education programs have been opened without enough preparation. They are not yet well organized and have several issues. Many in the Korean archival community question the quality of the country‘s archival education and the qualification of its archivists. 
-This study investigates current Korean graduate archival education programs and identifies issues that should be considered for their development. For this study, the author has reviewed relevant literature and examined curricula of Korean graduate archival education programs via their websites. Previous attendance at workshops and conferences of Korean archival professional associations and previous consultations with archival educators and archivists has helped the author identify issues in current archival education. 
-Preliminary findings show that Korean archival programs are interdisciplinary in many graduate schools. This characteristic and the absence of unified guidelines for graduate programs in archival studies produce great diversity in the discipline across all of Korea. This diversity in graduate archival education programs seems likely to cause great variation in the level of skill and knowledge of Korean archival students and professional archivists. Final findings will provide more information on Korean graduate archival education programs and their relationship to archival practice.</t>
-  </si>
-  <si>
-    <t>In the LIS community, work by Mackey (1) Ross, McKechnie, Rothbauer (2), and others, has looked at literacy and literacy events or practices in everyday life. Their focus is on how people engage with and process texts in the activity of reading, as well as the role and meaning of such texts in people‘s lives. Although similar in conception, the focus of my research is on what Rothbauer (2005, p. 123) calls the ―extension‖ or ―flip side‖ of reading as a literacy practice. The focus of my research is on the activity of writing as a literacy practice, and on the purpose and object of that writing activity – the creation of documents and records. My study of writing and recording is firmly centered on everyday texts (3), with an emphasis on what it means to be literate in the school and the workplace, and an associated study of the texts and genres of those domains (4). This information creation research broadens the LIS field of human information behavior (a field which up to now has been largely devoted to information seeking research) by including the examination of when, where, how and why people create information in various domains; investigating the fundamental skills and knowledge that come into play in creating and using information, as well as the larger role that genres of information play in society.
+This project is relevant to the development of new methods for preservation of materials in the field of geology. It is important to discover what types of resources these subjects reference and where they go for information as well as what their information needs are for this area. There is currently very little literature on the preservation methods of Geologists. By conducting this research I will help shed light on this area of work and learn more about what research needs to be done in this field.</t>
+  </si>
+  <si>
+    <t>In the LIS community, work by Mackey (1) Ross, McKechnie, Rothbauer (2), and others, has looked at literacy and literacy events or practices in everyday life. Their focus is on how people engage with and process texts in the activity of reading, as well as the role and meaning of such texts in people‘s lives. Although similar in conception, the focus of my research is on what Rothbauer (2005, p. 123) calls the―extension or―flip side of reading as a literacy practice. The focus of my research is on the activity of writing as a literacy practice, and on the purpose and object of that writing activity―the creation of documents and records. My study of writing and recording is firmly centered on everyday texts (3), with an emphasis on what it means to be literate in the school and the workplace, and an associated study of the texts and genres of those domains (4). This information creation research broadens the LIS field of human information behavior (a field which up to now has been largely devoted to information seeking research) by including the examination of when, where, how and why people create information in various domains; investigating the fundamental skills and knowledge that come into play in creating and using information, as well as the larger role that genres of information play in society.
 Using insights from naturalism and ethnomethodology, my prior research examined how elementary school students‘ knowledge of how to create and use records developed through training, experience, and negotiation. With this ethnographic research I established that children hold within themselves common sense notions about records, that children use records to negotiate aspects of both their formal and informal lives, and that records form part of students‘ identity, part of the language of a common membership. In the next stage of this research I have moved beyond school literacy practices and a solely contemporary ethnographic approach to examine a different social context (the 4-H club) in which children and young adults are taught how to create and use everyday documents. 4-H is a volunteer and youth movement that has its origins in the United States in the turn of the twentieth century. Initially looking to connect rural youth with hands-on agricultural education, 4-H has developed into a community for young people to learn citizenship, leadership, and life skills. Drawing on notions of literacy from the field of New Literacy Studies, this research explores the role and function of recordkeeping as an activity by 4-H members, with a specific focus on the "record books" that members create. In particular, I seek to uncover the history and social context in which these record books first came into being, to analyze how the motivation and need for record books changed over time, to investigate the current meaning that these everyday documents have for the people that create them, as well as to examine the record book itself as a type and form of genre.
 1. Mackey, M. (2002). Literacies across media: Playing the text. London: Routledge. Ross, C. L., Rothbauer, P. M., &amp; McKechnie, L. E. F. (2005). Reading matters: What the research reveals about reading, libraries, and community. Westport, CT: Libraries Unlimited.
 2. Rothbauer, P. M. (2005). Young adults and reading. In Ross, C. L., Rothbauer, P. M., &amp; McKechnie, L. E. F., Reading matters: What the research reveals about reading, libraries, and community (pp. 101-131). Westport, CT: Libraries Unlimited.
@@ -956,85 +974,66 @@
 4. See, for example, Trace, C. B. (2002). What is recorded is never simply 'what happened:‘ Record-keeping in modern organizational culture. Archival Science: International Journal of Recorded Information, 2 (1), 137 - 159.</t>
   </si>
   <si>
-    <t>One of the key findings, from the Clever Recordkeeping Metadata Project was to see the extent to which paper models dominate recordkeeping practices and inhibit opportunities for automated recordkeeping metadata capture and re-use. At the same time, the project also identified the potential in emerging service oriented architectures to progress the idea of being able to integrate recordkeeping processes into digital business process that allow the capture of recordkeeping metadata in more sustainable and scalable ways. However, being able to take advantage of this potential requires further investigations into what recordkeeping may look like as a suite of services, along with what recordkeeping requirements may be entailed in these architectures. A part of this is to also identify, conceptualize and realize new recordkeeping infrastructure for these new environments. Addressing these issues requires a complex mix of research and practical activities, that can take emergent ideas, explore their promise, shepherd their development and foster their realization and deployment in disciplined systems. This suggests the need for researchers and practitioners to be able to come together in ‘healthy hothouses’ capable to nurture recordkeeping innovation.
-One such area where there could be an opportunity to employ such an approach is in the area of eResearch. In this space research data management is a hot topic. Many are grappling with what is required for the creation, capture, management and ongoing use of large quantities of digitally recorded and networked information objects generated in and/or of relevance to research processes to allow for the collaboration across time and space that is a fundamental method of scholarly practice (Courant 2006). Archives have of course played an important role in such research infrastructure in the paper world. Hence there is an opportunity to bring this expertise and experience to the eResearch space, and explore how practices, tools and systems must be re-imagined and re-figured in order to meet challenges of research data and other records creation, management and use for digital and networked environments.
-This presentation will explore research data management from a recordkeeping perspective and identify opportunities specific to the eResearch space as well as for recordkeeping in general that could be explored and developed through practical and research partnerships in academic settings.</t>
-  </si>
-  <si>
-    <t>The Digital Curation Centre's Curation Lifecycle is a high-level model of the activities that comprise digital curation. It is intended for organizations to use to model their data curation activities, identifying the specific actions, technologies, standards and skills required at each stage, and adding to it or deleting from it where required. The model is intended to apply to a wide range of digital curation contexts, institutional repositories, digital archives, and electronic records management among them.
-The DCC Curation Lifecycle appears to have significant potential to be applied as a framework for a curriculum for teaching digital preservation in the archives context. This presentation reports the results of attempts to apply the Curation Lifecycle as the basis of a digital preservation course in two countries.</t>
-  </si>
-  <si>
-    <t>A large part of archival practice through the ages has been concerned, for very sound societal and pragmatic reasons, with describing the holdings of archives and documenting the actions and activities performed upon or associated with those holdings. Using contemporary terminology, we could place all of these descriptive and documentary activities under the broad, although these days all-too-vague heading of “metadata.”  We have archaeological evidence that such metadata was created and maintained within some of the earliest and most prototypical textual archives in Asia Minor and elsewhere.  Historical metadata practices, however, while they might exhibit characteristics that would seem familiar to archivists today, have been far from monolithic. European medieval chanceries and later renaissance and reformation archives provide ample examples of various systems of arrangement and description that were proposed, implemented, revised, abandoned or maintained.  The publication of Muller, Feith and Fruin’s Manual on the Arrangement and Description of Archives in 1898 in Groningen, which delineated European practices of arrangement and description, together with its presentation at the 1910 International Congress of Libraries and Archives in Brussels, and subsequent translations around the world are often pointed to as the seminal events that resulted in the de facto codification of ideas about archival descriptive practices.  This codification eventually led to worldwide acceptance following the 1993 approval of the ISAD(G), General International Standard Archival Description by the International Council on Archives Ad Hoc Commission on Descriptive Standards in Stockholm. 
-Today the ability at least to contemplate widespread exchange of archival information based upon a common set of metadata structures and conceptualizations is generally considered to be an enormous advance upon the long-extant status quo of standalone, idiosyncratic archival repositories operating in distinct national and organizational contexts. Nevertheless, the status of archival metadata is something that deserves further critical analysis and reflection.  There remain wide variations in archival metadata practices around the globe as different archival traditions in different cultural and bureaucratic communities strive to maintain local and Indigenous practices or seek to create new national or sector-relevant standards, yet still interface with global but arguably Eurocentric standards.  Moreover, the creation of volumes of digital records so vast and complex that no archives can realistically contemplate manual metadata creation, coupled with the potential of Web 2.0 for spreading the burden of metadata creation beyond the archive and archivists together raise abundant new questions about the provenance, nature and role of metadata, as well as that of the archivist as the sole author of that metadata.
-This paper will consider the intellectual lineage of ideas about metadata and the motivations and perspectives underlying them.  It will then reflect upon the implications of those ideas for contemporary concerns of global information exchange, sovereignty, democratization, pluralization, accessibility and scalability.</t>
-  </si>
-  <si>
-    <t>University of California Los Angeles; Los Angeles Public Library; University of California Los Angeles; Central Washington University; University of California Los Angeles; Mayme Clayton Library and Archives; University of California Los Angeles; Autry National Center; University of California Irvine; California State Polytechnic University Pomona</t>
-  </si>
-  <si>
-    <t>[No title in program.]</t>
-  </si>
-  <si>
-    <t>[No abstract in program.]</t>
-  </si>
-  <si>
-    <t>Beth Yakel; Richard Cox; Terry Cook; Sue McKemmish; Andrew Lau</t>
-  </si>
-  <si>
-    <t>[No presenter institution in program.]</t>
-  </si>
-  <si>
-    <t>[No presenter in program.]</t>
-  </si>
-  <si>
-    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm; http://aeri.website/2009-conference-schedule/</t>
-  </si>
-  <si>
-    <t>http://aeri.website/research-methodologies-for-community-engagement-disparate-ideas-as-opportunities-to-enhance-understanding/; https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm</t>
-  </si>
-  <si>
-    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; http://aeri.website/2009-conference-schedule/; Ricci listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm</t>
-  </si>
-  <si>
-    <t>https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf; https://aeri.gseis.ucla.edu/2009.htm;
-http://aeri.website/2009-conference-schedule/
-Lindbergh listed under "MISSING" on https://aeri.gseis.ucla.edu/2009_panels.htm#llindbergh</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/2009.htm. 
-Appears on the website (https://aeri.gseis.ucla.edu/2009.htm) but not in program pdf at https://github.com/hsoyka/AERI/blob/master/AERI%202009%20program.pdf.</t>
-  </si>
-  <si>
-    <t>University of Melbourne and Monash University; Monash University; Monash University</t>
-  </si>
-  <si>
-    <t>Disparate Ideas as Opportunities to Enhance Understanding</t>
-  </si>
-  <si>
-    <t>University of Michigan; University of Pittsburgh; University of Manitoba; Monash University; University of California Los Angeles</t>
-  </si>
-  <si>
-    <t>University of Melbourne and Monash University</t>
-  </si>
-  <si>
-    <t>The advent of the electronic record and the development of the internet is moving society quickly into a global world. Through global media and communication technologies such as the internet virtually everyone on earth is exposed to diverse cultural institutions. The availability of digital cultural information is opening a whole new world to archivists, historians and scholars. Its rich, unique content and historical value is attracting enormous attention from researchers from all over the world. This increased accessibility of archival information is largely made possible by the development of electronic finding aids and is accelerated by the wide spread of international standardization. Global standardization is understood by diverse information communities as the most efficient way to solve the problem of how to more effectively exchange digital information across different databases. People seek to standardize systems to reduce the idiosyncratic organizational practice to encourage conformity in support of data exchange and use. Without common standards in order to improve the accessibility of cross-domain searching and access, professionals working in different standards would have to understand the descriptive standards which are used in every other domain.
-The history of globalization of descriptive standards in the archival field dates from 1999. The question of producing common international standards was addressed by the International Council on Archives‘s (ICA) Ad Hoc Commission on Archival Description, set up in 1990, and the General International Standard Archival Description (ISAD(G)) was developed as the international standard framework. The purpose of ISAD(G) is to identify and explain the context and content of archival materials in order to promote accessibility internationally and to provide general guidance for the preparation of archival descriptions. It provides short, clear rules for archival description, with specific examples, and established the principle of hierarchical description that controls records‘ contexts.
-However, the standard tends to ignore the perspective of marginalized user groups and targets large organizational systems, in particular, Western system. All these new efforts to build global standards supporting diverse schema are exclusively led by Western countries, mainly North American, Western European countries, and Australia. Countries outside the mainstream have had little opportunity to participate in developing the ISAD(G) and to reflect their concepts in building the standard. This exclusion has resulted in a lack of consideration of the needs of other countries and has imposed upon non-Western countries the archival paradigm generated in the mainstream of Western countries in the new digital era.
-So, this study is mainly interested in how the process of standardization impacts the local practice in recordkeeping management systems. In particular, this research is interested in the adoption process of ISAD(G) standards in Korea. Through this analysis, this study aims to examine how standards are related to the social values in the different cultures by closely looking at how a Western standard can take control over the historical documentation of a non-Western society. While several studies have been conducted on the impact of standardization in terms of technological development and economic benefit, there is still little empirical research on standard setting, especially in terms of the various mechanisms of the socio-cultural factors effect of global standards at the level of local practice. A social-constructivist perspective provides a useful starting point for getting at the social dynamics effecting global standardization and was adopted as the main theoretical framework for this study.</t>
+    <t>The Polar Bear Expedition Digital Collections are the oldest example of the use of social computing in  archives. This poster will present an overview of research findings from 3.5 years of social interaction on the site. The methodology includes quantitative analysis of the web analytics and qualitative analysis of the visitor contributions, interactions. Findings will elucidate the patterns of use, the nature of the interactions between visitors and between the visitors and the archivists and the types of contributions to the site.</t>
+  </si>
+  <si>
+    <t>My presentation will examine several factors that affect the use and retention of electronic documents in the workplace. I will draw on data from questionnaires circulated to individuals in a variety of professional settings as well as surveys of electronic documents kept by individuals in several organizations. The factors to be examined include age, rank within the organization, professional classification, and the type of organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this study was to explore the relationships between collective memory, the textualization of personal experience, and the psychodynamics of meaning-making when   creating and interacting with historical objects. Specifically, this study explored migration testimonies as statements of identity, which were collected and exhibited online by Moving Here: 200 Years of Migration to England, an educational resource organized by the National Archives of the UK and its partner institutions. The fantasy theme rhetorical analysis framework and the rhetorical situation framework were used to analyze the personal and experiential stories collected by the National Archives of the UK in the Moving Here project and the themes of national and cultural identity. The use of these particular approaches allowed for an evaluation of their efficacy as interpretive frameworks and ultimately, their limitations as such. This study also explored theoretical implications and explanatory frameworks from a variety of disciplines, including psychoanalysis, multicultural psychology, philosophy, and postmodern archival theory. The results underscored the need to rethink central tenets of traditional archival theory, such as questions of what constitutes the―work‖ of archival professionals, and more broadly, the professional and theoretical identity of archivists. In particular, the migration testimonies collected by the Moving Here project exemplify a need for professional reflexivity about the definitions of the―record.‖ </t>
+  </si>
+  <si>
+    <t>According to Catherine Marshall, value (and accumulation) is an urgent challenge associated with personal archiving. Value and accumulation refers to an individual‘s ability to assign value to his or her information items so decisions about what to keep and what to discard can be made. To address this problems, Marshall calls for the development of "heuristic notions of value" to guide individuals in making decisions.
+The idea of "heuristic notions of value" is not new to the archival world, the concept mirrors archival appraisal. While articles about appraisal have appeared in archival-themed journals for decades, many in the personal information management (PIM) community are not aware of the concept, due to a lack of interdisciplinary connection between the fields. To move beyond a discussion over the use of "heuristic notions of value" and archival appraisal," I attempt to address this issue through the lens of saving and collecting behavior.
+While Marshall and several individuals in the archival field have identified the problems that saving behavior can cause in the practice of personal archiving, the discussion usually stops at identification. Upon closer inspection of individual saving behavior, what patterns emerge? Furthermore, what role do specific individual concepts play in saving behavior?
+I propose to study how individual concepts of identity influence saving behavior in personal archiving during life transitions. An individual‘s concept of identity can influence how an individual relates to others and relates to a particular group. Archival-related discussions of information seeking and collective memory have established the relevance of identity in archival science.
+Research into this type of behavior extends beyond the realm of information science and can be complimented by research conducted in studies of compulsive hoarding. According to Frost and Gross, compulsive hoarders view possessions as extensions of their identity, so much so that discarding a belonging symbolically translates to discarding their identity or a piece of themselves. While compulsive hoarding represents an extreme form of saving behavior, the measurements created by psychologists to assess compulsive hoarding can be utilized to detect patterns in saving behavior associated with personal archiving.
+Saving behavior is highlighted during certain life transitions, such as retirement. As more individuals retire from a career and/or downsize to a smaller home or retirement community, decisions must be made about what to purge and what to bring along to a new dwelling and/or lifestyle. Retirement can trigger reflection about identity and belongings and thus serves as an opportune example in which to study identity and saving behavior. Identifying patterns of saving behavior in personal archiving has implications for the archival profession as archivists attempt to a address the mounting traditional paper documents and digital documents that enter their doors. In order to inform collecting as suggested by Cunningham in the practice of pre-custodial intervention, archivists who work with donors need to understand saving patterns. A better understanding of saving can guide individuals as they attempt to manage their personal archives and aid archivists as they attempt to work with individual donors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary individuals are constantly surrounded by evolving digital information technology. Consequently, they accumulate a large amount of personal digital materials overtime in their everyday lives. While individuals develop and practice their own methods to manage their personal digital materials using various on/off-line virtual spaces and tools, the question of how to manage personal digital materials effectively attracts researchers in various fields such as Personal Information Management (PIM) studies, Information Studies, Digital Humanities, and Computer Science.
+Considering the evidential, cultural, and social value of personal digital materials, there is an increased need for the long-term archival preservation of personal digital materials. Personal digital materials should be treated as archives and preserved beyond one’s lifetime so future generations of families, communities, and societies can learn about where they come from and who they are.
+Personal digital archives is a research theme exploring the long-term digital preservation of personal digital materials. Personal digital archives can be individual, private digital archives managed, operated, and maintained by people in their everyday lives. It requires grass-roots level archiving/preservation activities. It is a research area in which research efforts in various fields such as archival studies and studies of PIM systems can be mixed together and applied in the practice of what might be called “everyday life recordkeeping.” The preservation of cultural memories captured in personal documents both paper and recently digital form is one of the main duties of the archival profession for hundreds of years. Preservation practices, theories, and experiences developed in the archival profession will provide the foundation for the archival preservation of personal digital materials.
+In my research presentation, I will discuss the need of the grass-root level archiving/preservation in the digital age and what the archival profession can offer for establishing personal digital archives conceptually and practically. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old methods of communicating, like writing letters and keeping journals, have greatly diminished due to the prolific use of electronic mediums. Instead, web-based emails and blogs are prevalent. Personal documents (letters, journals, or other formal/informal documents) are precious materials for the future use to observe the era in which individuals lived. However, how many people realize that electronic letters and blogs could be vulnerable in the hands of today's service providers, not the creators'?
+Ultimately, personal records, in any format, as a rich historical resource has been and continue to be one of important materials that information professionals, not just archivists but also digital librarians and other professionals in memory institutions, need to handle and make available to users. However, little is known about how the general public maintains and preserves their records, especially in the web environment. In this sense, this study intends (1) to examine how the general public uses commercially provided web emails and blogs to keep their personal documents and history, and (2) to determine what roles information professionals need to play in assisting the general public to archive their data so it is not lost to future generations and historians.
+To do so, an online survey was created asking questions about the perceptions on archiving emails and blogs of service users, the current status of personal recordkeeping of email and blog contents, and expectations and functionalities of archiving tools that the users find useful or would like to have. From this survey, this study tried to draw the roles of information professionals in leading the general public to be more aware of the importance of their personal records, not only for their own purposes but also as a cultural resource.
+More than 350 email and blog users participated in this survey. Survey results were interesting and insightful as the participants were well aware of the risk of losing their contents in emails and blogs and of the fact that most email and blog service providers do not provide any method to backing up contents. Some even understood that their personal records will become a part of cultural heritage in the future and acknowledge its importance. However, there were not many participants actively sought a tool to preserve them. </t>
+  </si>
+  <si>
+    <t>Memory forms the fabric of human life, affecting everything from the ability to perform simple, everyday tasks to the recognition of self.  Memory establishes life’s continuity; it gives meaning to the present, as each moment is constituted by the past.  As the means by which we remember who we are, memory provides the very core of identity. -Marita Sturken, Tangled Memories: The Vietnam War, the AIDS Epidemic, Politics of Remembering
+The past is always with us, and it defines our present; it resonates in our voices, hovers over our silences, and explains how we came to be ourselves and to inhabit what we call ‘our homes.’ -Vijay Agnew, Diaspora, Memory, and Identity:  A Search for Home
+When people die the memory of their experiences goes with them if they (their experiences) are not documented in some way, made as record, collected and preserved. Or as Sue McKemmish says, “At a more profound level, destroy the memory—the evidence those peoples ever lived in the place—and those cultures never existed as all.” Records need to be made because without them there would be no evidence of the past. Moreover, and perhaps more importantly, there can never be too many records of a past that was never documented in the first place from the point-of-view of those who lived the experience. One’s personal records, e.g., letters, photographs, and home movies, are windows into one’s past that would be lost and forgotten if they were not produced and preserved to document life—one’s personal, historical, and cultural past. “Documenting “home” in the diaspora: Memory, records, and identity” discusses the (dis)location of “home” in the diaspora in the context of the transnational immigrant experience and how “records” from that experience (re)produce and (re)configure “home” in multiple places.
+The diaspora implies being caught between two “worlds” where the individual’s experience is one of “dynamic tension every day between living ‘here’ and remembering ‘there’, between memories of places of origins and entanglements with places of residence, and between the metaphorical and the physical home.” In other words, notions of home are confounded in the diaspora; and as such, the records of “home” produced by diasporic individuals and groups remake, as well as disperse their histories, experiences, cultures, and identities, while also haunting the collections and recollections of their memories. Using examples from the presenter’s own film work, this presentation will also demonstrate how personal records can be used to (re)create personal narratives as counter historical and cultural narratives, as they produced an alternate record that evidences identity and experience apart from and in addition to national records and official histories, (dis)locating “home” across the boundaries of place and (re)configuring it in the imaginary, creating the archives elsewhere and otherwise beyond the physical borders of the nation-state and its notion of citizenship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How archival processes are implicated in collective memory is a question of increasing theoretical interest to academic archivists. Unfortunately, most of the recent work has not explored empirically the role of  specific collections in the formative phases of collective memory representation. Exceptions include research on the  ̳indigenous archive‘ in Canada and Australia, however, the bulk of this work addresses questions of access and archives in colonial administration. I supplement this work by considering how archives function in the representation of American Indian tribal national identity. Specifically, my research explores how notions of archival evidence and authenticity are applied to specific classes of records by the Office of Federal Acknowledgment to evaluate petitions by indigenous peoples as part of the Federal Acknowledgment Process (FAP). Under FAP, tribal entities seek federal acknowledgment as tribal nations by using various types of records as evidence to satisfy seven specific criteria. I explain how conceptions of 'legitimate evidence‘ constitute one important mechanism through which records exert significant influence over the articulation and representation of a class of collective memory representations. </t>
+  </si>
+  <si>
+    <t>Where an archive can be a collection of paper-based or electronic records preserved together for the use of future generations, it can also be a collection of records held together through their storage within, and use by, the community to which they belong. This second description of an archive can include all record forms including oral memory transmitted by stories shared within families or communities; the land; archaeological evidence; paper records, audio-recorded histories, multi-media web pages, and digital archives; community, government and other organisational records; and, photographs, and visual and performance art--all being potentially valuable sources of community knowledge. Whilst this type of archive recognises cultural differences in preserving records for future generations, how does it function? What are the frameworks, processes and protocols, and relationship/s between this form of a community archive and other collections such as those formed by government and other organisations? Is there an awareness within the community that an archive exists? This is what my Indigenous Research Fellowship is planning on finding out.
+This research project will be working in partnership with the Gunditjmara community of the Lake Condah region of western Victoria to map their archive and the relationships between it and other archives over a two-year period. From this it is planned to develop an in-depth and rich understanding of all archival sources, forms and media relevant to a Koorie community, including their current use and the desired interaction of the community with their archive. The findings of the Project will assist future community management of their archive and support the development of archival frameworks, protocols and processes of Koorie archiving. This research will also benefit the archival community in developing a cultural perspective of Koorie archiving needs that will aid in the development of archival science principles and practices that are more culturally appropriate to the diverse communities that they address.
+Whilst this project will not be commencing until July 2009, this paper will be presenting the wheres and what fors that led to the development of this project including the ARC Linkage Project Trust and Technology: Building an archival system for Indigenous oral memory (T&amp;T) project and my thesis research Narratives of Koorie Victoria. These projects not only provided the catalyst for this research, but also the research methodology that many of us involved in the T&amp;T Project viewed as being necessary for successful research in this area. This paper will be part one of hopefully a series of papers over the period of this Institute looking at the development of the project and its outcomes as they occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contemporary ideas of race in Mexico are dominated by the concept of mestizaje (racial and cultural mixture). As the dominant paradigm, mestizaje has allowed for a somewhat unified idea of what it means to be “Mexican”. Although Mexican anthropologist, Gonzalo Beltrán estimated that enslaved Africans (or remnants thereof) was one of the largest population groups of Mexican society by the mid-Eighteenth Century, little or no reference is included in its grand narrative. After gaining independence from Spain, Mexico engineered a new national identity—one that considered itself to be mestizo (racially and culturally mixed). Mestizaje ideology permitted a sympathetic investigation of and linkage to the new nation’s Indigenous past.  In doing so, other minority groups, such as Mexicans of African descent, were silenced and “erased” from the official historical and contemporary narratives of Mexican nationhood and national identity. Despite strong historical evidence that indicates a large African population in colonial Mexico, the archetypical “Mexican” is even today represented to be mestizo—the product of an unproblematic cultural and racial “mixture” of Spanish and Indigenous people with no acknowledgment of the nation’s African heritage. This situation is reinforced by official record-keeping, which provides no way for Mexicans of African descent to identify themselves as such, even though their communities continue to experience racial discrimination and marginalization.
+This representation will summarize the findings of a study conducted in 2008 that sought 1) to provide insight on how communities of African heritage became absent from Mexico’s official record; 2) to describe Mexico’s archival education infrastructure and identify the role that education of archival professionals might play in addressing or contributing to these absences; 3) using the case of Mexicans of African descent in the Costa Chica (home of the largest Mexican community of African descent), to delineate ways of remembering in non-Indigenous ethnic communities; and 4) to generate recommendations for how under-documentation and the resulting absences of these kinds of communities from the archival record might be partly remediated by changing how archivists are educated. </t>
+  </si>
+  <si>
+    <t>Panel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1070,19 +1069,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1154,7 +1141,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1177,13 +1164,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,7 +1188,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1582,21 +1563,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="54.19921875" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" customWidth="1"/>
     <col min="7" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="33.09765625" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,2361 +1602,2366 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2009001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2009002</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>277</v>
+      <c r="B3" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2009003</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>277</v>
+      <c r="B4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2009004</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>277</v>
+      <c r="B5" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2009005</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>277</v>
+      <c r="B6" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2009006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2009007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2009008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2009009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2009010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2009011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2009012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2009013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2009014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2009015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2009016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2009017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2009018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2009019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2009020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2009021</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2009022</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2009023</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2009024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2009025</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2009026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2009027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2009028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2009029</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2009030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2009031</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2009032</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2009033</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2009034</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2009035</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2009036</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2009037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2009038</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2009039</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2009040</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2009041</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2009042</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2009043</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2009044</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2009045</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2009046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="145.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2009047</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="297.45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="297.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2009048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2009049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2009050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2009051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2009052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>177</v>
+        <v>278</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2009053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>177</v>
+        <v>144</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2009054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>177</v>
+        <v>241</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2009055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>177</v>
+        <v>279</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>2009056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>177</v>
+        <v>145</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>2009057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>177</v>
+        <v>242</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>2009058</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>177</v>
+        <v>118</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2009059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>177</v>
+        <v>146</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2009060</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>177</v>
+        <v>245</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2009061</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>177</v>
+        <v>280</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2009062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>177</v>
+        <v>281</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2009063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>177</v>
+        <v>282</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2009064</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>65</v>
+        <v>263</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>177</v>
+        <v>123</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="327.60000000000002" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2009065</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>177</v>
+        <v>147</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2009066</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>177</v>
+        <v>148</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2009067</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>177</v>
+        <v>149</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2009068</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>177</v>
+        <v>150</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2009069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>177</v>
+        <v>284</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2009070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2009071</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2009072</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2009073</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2009074</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>136</v>
+        <v>266</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2009075</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2009076</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2009077</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>2009078</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="405.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>2009079</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+        <v>156</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
         <v>2009080</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>175</v>
+      <c r="G81" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
         <v>2009081</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>283</v>
+      <c r="B82" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>